--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Los Portones de San Luis</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,16 +4274,16 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Inmobiliaria PY S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>17890</v>
+        <v>1200</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -4292,12 +4292,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,16 +4322,16 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1200</v>
+        <v>9200</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4370,16 +4370,16 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>9200</v>
+        <v>0</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Los Portones de San Luis</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,16 +4418,16 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>17890</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,11 +6055,11 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>SOCIEDAD DISEPLA LTDA.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>986</v>
+        <v>800</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6068,12 +6068,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,11 +6103,11 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SOCIEDAD DISEPLA LTDA.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>800</v>
+        <v>986</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6116,12 +6116,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Agua Potable Chamisero</t>
+          <t>Ampliación de Capacidad para Almacenamiento de Cal Viva</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6871,11 +6871,11 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Aguas Manquehue S.A.</t>
+          <t>Calidra Chile Importaciones Minerales SpA</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>4335</v>
+        <v>120</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089108&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6130704&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Ampliación de Capacidad para Almacenamiento de Cal Viva</t>
+          <t>Planta de Tratamiento de Agua Potable Chamisero</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,11 +6919,11 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Calidra Chile Importaciones Minerales SpA</t>
+          <t>Aguas Manquehue S.A.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>120</v>
+        <v>4335</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6937,7 +6937,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6130704&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089108&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9751,7 +9751,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F196" t="n">
@@ -9764,12 +9764,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9799,7 +9799,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F197" t="n">
@@ -9812,12 +9812,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9847,11 +9847,11 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9860,12 +9860,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9895,11 +9895,11 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9908,12 +9908,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
+          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10375,11 +10375,11 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Anglo American Sur S.A.</t>
+          <t>Plasticos Montesa Ltda.</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>2000</v>
+        <v>1196</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -10388,12 +10388,12 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
+          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10423,11 +10423,11 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Plasticos Montesa Ltda.</t>
+          <t>Anglo American Sur S.A.</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>1196</v>
+        <v>2000</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10436,12 +10436,12 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -12616,7 +12616,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12626,16 +12626,16 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F256" t="n">
-        <v>1700</v>
+        <v>80</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -12644,12 +12644,12 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -12664,7 +12664,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12674,16 +12674,16 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F257" t="n">
-        <v>80</v>
+        <v>1700</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -12692,12 +12692,12 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -15776,7 +15776,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
+          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15791,11 +15791,11 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Compañía de Inversiones Mobiliarias Limitada</t>
+          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>850</v>
+        <v>820</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15804,12 +15804,12 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -15824,7 +15824,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
+          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15839,11 +15839,11 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
+          <t>Compañía de Inversiones Mobiliarias Limitada</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>820</v>
+        <v>850</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15852,12 +15852,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -18272,7 +18272,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -18300,12 +18300,12 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
@@ -18320,7 +18320,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -18348,12 +18348,12 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -6500,7 +6500,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Los Portones de San Luis</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,16 +4274,16 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1200</v>
+        <v>17890</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -4292,12 +4292,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,16 +4322,16 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>9200</v>
+        <v>1200</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4370,16 +4370,16 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>9200</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Los Portones de San Luis</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,16 +4418,16 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Inmobiliaria PY S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>17890</v>
+        <v>0</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,11 +6055,11 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SOCIEDAD DISEPLA LTDA.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>800</v>
+        <v>986</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6068,12 +6068,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,11 +6103,11 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>SOCIEDAD DISEPLA LTDA.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>986</v>
+        <v>800</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6116,12 +6116,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Ampliación de Capacidad para Almacenamiento de Cal Viva</t>
+          <t>Planta de Tratamiento de Agua Potable Chamisero</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6871,11 +6871,11 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Calidra Chile Importaciones Minerales SpA</t>
+          <t>Aguas Manquehue S.A.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>120</v>
+        <v>4335</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6130704&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089108&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Agua Potable Chamisero</t>
+          <t>Ampliación de Capacidad para Almacenamiento de Cal Viva</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,11 +6919,11 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Aguas Manquehue S.A.</t>
+          <t>Calidra Chile Importaciones Minerales SpA</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>4335</v>
+        <v>120</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6937,7 +6937,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089108&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6130704&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9751,7 +9751,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F196" t="n">
@@ -9764,12 +9764,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9799,7 +9799,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F197" t="n">
@@ -9812,12 +9812,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9847,11 +9847,11 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9860,12 +9860,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9895,11 +9895,11 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9908,12 +9908,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
+          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10375,11 +10375,11 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Plasticos Montesa Ltda.</t>
+          <t>Anglo American Sur S.A.</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>1196</v>
+        <v>2000</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -10388,12 +10388,12 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
+          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10423,11 +10423,11 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Anglo American Sur S.A.</t>
+          <t>Plasticos Montesa Ltda.</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>2000</v>
+        <v>1196</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10436,12 +10436,12 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -12616,7 +12616,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12626,16 +12626,16 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F256" t="n">
-        <v>80</v>
+        <v>1700</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -12644,12 +12644,12 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -12664,7 +12664,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12674,16 +12674,16 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F257" t="n">
-        <v>1700</v>
+        <v>80</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -12692,12 +12692,12 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -15776,7 +15776,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
+          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15791,11 +15791,11 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
+          <t>Compañía de Inversiones Mobiliarias Limitada</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>820</v>
+        <v>850</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15804,12 +15804,12 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -15824,7 +15824,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
+          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15839,11 +15839,11 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Compañía de Inversiones Mobiliarias Limitada</t>
+          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>850</v>
+        <v>820</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15852,12 +15852,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -18272,7 +18272,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -18300,12 +18300,12 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
@@ -18320,7 +18320,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -18348,12 +18348,12 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Los Portones de San Luis</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,16 +4322,16 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1200</v>
+        <v>17890</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4370,16 +4370,16 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>9200</v>
+        <v>1200</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,16 +4418,16 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>9200</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Los Portones de San Luis</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,16 +4466,16 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Inmobiliaria PY S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>17890</v>
+        <v>0</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4484,12 +4484,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,11 +6103,11 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SOCIEDAD DISEPLA LTDA.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>800</v>
+        <v>986</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6116,12 +6116,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,11 +6151,11 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>SOCIEDAD DISEPLA LTDA.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>986</v>
+        <v>800</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6164,12 +6164,12 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9799,7 +9799,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F197" t="n">
@@ -9812,12 +9812,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9847,7 +9847,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F198" t="n">
@@ -9860,12 +9860,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9895,11 +9895,11 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9908,12 +9908,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9943,11 +9943,11 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9956,12 +9956,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
+          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10423,11 +10423,11 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Plasticos Montesa Ltda.</t>
+          <t>Anglo American Sur S.A.</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>1196</v>
+        <v>2000</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10436,12 +10436,12 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
+          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10471,11 +10471,11 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Anglo American Sur S.A.</t>
+          <t>Plasticos Montesa Ltda.</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>2000</v>
+        <v>1196</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10484,12 +10484,12 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -12664,7 +12664,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12674,16 +12674,16 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F257" t="n">
-        <v>80</v>
+        <v>1700</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -12692,12 +12692,12 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -12712,7 +12712,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12722,16 +12722,16 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F258" t="n">
-        <v>1700</v>
+        <v>80</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -12740,12 +12740,12 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -15824,7 +15824,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
+          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15839,11 +15839,11 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
+          <t>Compañía de Inversiones Mobiliarias Limitada</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>820</v>
+        <v>850</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15852,12 +15852,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -15872,7 +15872,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
+          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15887,11 +15887,11 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Compañía de Inversiones Mobiliarias Limitada</t>
+          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>850</v>
+        <v>820</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15900,12 +15900,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -18320,7 +18320,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -18348,12 +18348,12 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
@@ -18368,7 +18368,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -18396,12 +18396,12 @@
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Los Portones de San Luis</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,16 +4322,16 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Inmobiliaria PY S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>17890</v>
+        <v>1200</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4370,16 +4370,16 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>1200</v>
+        <v>9200</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,16 +4418,16 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>9200</v>
+        <v>0</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Los Portones de San Luis</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,16 +4466,16 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>17890</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4484,12 +4484,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,11 +6103,11 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>SOCIEDAD DISEPLA LTDA.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>986</v>
+        <v>800</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6116,12 +6116,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,11 +6151,11 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SOCIEDAD DISEPLA LTDA.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>800</v>
+        <v>986</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6164,12 +6164,12 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9799,7 +9799,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F197" t="n">
@@ -9812,12 +9812,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9847,7 +9847,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F198" t="n">
@@ -9860,12 +9860,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9895,11 +9895,11 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9908,12 +9908,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9943,11 +9943,11 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9956,12 +9956,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
+          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10423,11 +10423,11 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Anglo American Sur S.A.</t>
+          <t>Plasticos Montesa Ltda.</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>2000</v>
+        <v>1196</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10436,12 +10436,12 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
+          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10471,11 +10471,11 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Plasticos Montesa Ltda.</t>
+          <t>Anglo American Sur S.A.</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>1196</v>
+        <v>2000</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10484,12 +10484,12 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -12664,7 +12664,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12674,16 +12674,16 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F257" t="n">
-        <v>1700</v>
+        <v>80</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -12692,12 +12692,12 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -12712,7 +12712,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12722,16 +12722,16 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F258" t="n">
-        <v>80</v>
+        <v>1700</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -12740,12 +12740,12 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -15824,7 +15824,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
+          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15839,11 +15839,11 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Compañía de Inversiones Mobiliarias Limitada</t>
+          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>850</v>
+        <v>820</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15852,12 +15852,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -15872,7 +15872,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
+          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15887,11 +15887,11 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
+          <t>Compañía de Inversiones Mobiliarias Limitada</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>820</v>
+        <v>850</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15900,12 +15900,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -18320,7 +18320,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -18348,12 +18348,12 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
@@ -18368,7 +18368,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -18396,12 +18396,12 @@
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Los Portones de San Luis</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4370,16 +4370,16 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Inmobiliaria PY S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>17890</v>
+        <v>1200</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4388,12 +4388,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,16 +4418,16 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1200</v>
+        <v>9200</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,16 +4466,16 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>9200</v>
+        <v>0</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Los Portones de San Luis</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,16 +4514,16 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>17890</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4532,12 +4532,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,11 +6151,11 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>SOCIEDAD DISEPLA LTDA.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>986</v>
+        <v>800</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6164,12 +6164,12 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,11 +6199,11 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SOCIEDAD DISEPLA LTDA.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>800</v>
+        <v>986</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6212,12 +6212,12 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9847,7 +9847,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F198" t="n">
@@ -9860,12 +9860,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9895,7 +9895,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F199" t="n">
@@ -9908,12 +9908,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9943,11 +9943,11 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9956,12 +9956,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9991,11 +9991,11 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10004,12 +10004,12 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
+          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10471,11 +10471,11 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Anglo American Sur S.A.</t>
+          <t>Plasticos Montesa Ltda.</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>2000</v>
+        <v>1196</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10484,12 +10484,12 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
+          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10519,11 +10519,11 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Plasticos Montesa Ltda.</t>
+          <t>Anglo American Sur S.A.</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>1196</v>
+        <v>2000</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -10532,12 +10532,12 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -12712,7 +12712,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12722,16 +12722,16 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F258" t="n">
-        <v>1700</v>
+        <v>80</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -12740,12 +12740,12 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -12760,7 +12760,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -12770,16 +12770,16 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F259" t="n">
-        <v>80</v>
+        <v>1700</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
@@ -12788,12 +12788,12 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
@@ -15872,7 +15872,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
+          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15887,11 +15887,11 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Compañía de Inversiones Mobiliarias Limitada</t>
+          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>850</v>
+        <v>820</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15900,12 +15900,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -15920,7 +15920,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
+          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15935,11 +15935,11 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
+          <t>Compañía de Inversiones Mobiliarias Limitada</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>820</v>
+        <v>850</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15948,12 +15948,12 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -18368,7 +18368,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -18396,12 +18396,12 @@
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
@@ -18416,7 +18416,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -18444,12 +18444,12 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Los Portones de San Luis</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4370,16 +4370,16 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>1200</v>
+        <v>17890</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4388,12 +4388,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,16 +4418,16 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>9200</v>
+        <v>1200</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,16 +4466,16 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>9200</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Los Portones de San Luis</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,16 +4514,16 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Inmobiliaria PY S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>17890</v>
+        <v>0</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4532,12 +4532,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,11 +6151,11 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SOCIEDAD DISEPLA LTDA.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>800</v>
+        <v>986</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6164,12 +6164,12 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,11 +6199,11 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>SOCIEDAD DISEPLA LTDA.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>986</v>
+        <v>800</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6212,12 +6212,12 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9847,7 +9847,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F198" t="n">
@@ -9860,12 +9860,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9895,7 +9895,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F199" t="n">
@@ -9908,12 +9908,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9943,11 +9943,11 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9956,12 +9956,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9991,11 +9991,11 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10004,12 +10004,12 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
+          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10471,11 +10471,11 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Plasticos Montesa Ltda.</t>
+          <t>Anglo American Sur S.A.</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>1196</v>
+        <v>2000</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10484,12 +10484,12 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
+          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10519,11 +10519,11 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Anglo American Sur S.A.</t>
+          <t>Plasticos Montesa Ltda.</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>2000</v>
+        <v>1196</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -10532,12 +10532,12 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -12712,7 +12712,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12722,16 +12722,16 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F258" t="n">
-        <v>80</v>
+        <v>1700</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -12740,12 +12740,12 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -12760,7 +12760,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -12770,16 +12770,16 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F259" t="n">
-        <v>1700</v>
+        <v>80</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
@@ -12788,12 +12788,12 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
@@ -15872,7 +15872,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
+          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15887,11 +15887,11 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
+          <t>Compañía de Inversiones Mobiliarias Limitada</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>820</v>
+        <v>850</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15900,12 +15900,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -15920,7 +15920,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
+          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15935,11 +15935,11 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Compañía de Inversiones Mobiliarias Limitada</t>
+          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>850</v>
+        <v>820</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15948,12 +15948,12 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -18368,7 +18368,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -18396,12 +18396,12 @@
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
@@ -18416,7 +18416,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -18444,12 +18444,12 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Oro y Cielo</t>
+          <t>Data Center SCL02-SCL03</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,15 +439,15 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Acciona Energía Chile SpA</t>
+          <t>EdgeConnex Chile II SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>72000</v>
+        <v>73000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21/02/2022</t>
+          <t>24/02/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -457,7 +457,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155117958&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155167505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Data Center SCL02-SCL03</t>
+          <t>Planta Solar Fotovoltaica Oro y Cielo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,11 +487,11 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>EdgeConnex Chile II SpA</t>
+          <t>Acciona Energía Chile SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>73000</v>
+        <v>72000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -500,12 +500,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155167505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155117958&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Los Portones de San Luis</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,16 +4418,16 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Inmobiliaria PY S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>17890</v>
+        <v>1200</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,16 +4466,16 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1200</v>
+        <v>9200</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,16 +4514,16 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>9200</v>
+        <v>0</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Los Portones de San Luis</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,16 +4562,16 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>17890</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4580,12 +4580,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,11 +6199,11 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>SOCIEDAD DISEPLA LTDA.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>986</v>
+        <v>800</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6212,12 +6212,12 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,11 +6247,11 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SOCIEDAD DISEPLA LTDA.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>800</v>
+        <v>986</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6260,12 +6260,12 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9895,7 +9895,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F199" t="n">
@@ -9908,12 +9908,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9943,7 +9943,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F200" t="n">
@@ -9956,12 +9956,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9991,11 +9991,11 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10004,12 +10004,12 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10039,11 +10039,11 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10052,12 +10052,12 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
+          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10519,11 +10519,11 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Anglo American Sur S.A.</t>
+          <t>Plasticos Montesa Ltda.</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>2000</v>
+        <v>1196</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -10532,12 +10532,12 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
+          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10567,11 +10567,11 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Plasticos Montesa Ltda.</t>
+          <t>Anglo American Sur S.A.</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>1196</v>
+        <v>2000</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
@@ -10580,12 +10580,12 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -12760,7 +12760,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -12770,16 +12770,16 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F259" t="n">
-        <v>1700</v>
+        <v>80</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
@@ -12788,12 +12788,12 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
@@ -12808,7 +12808,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12818,16 +12818,16 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>80</v>
+        <v>1700</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -12836,12 +12836,12 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -15920,7 +15920,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
+          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15935,11 +15935,11 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Compañía de Inversiones Mobiliarias Limitada</t>
+          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>850</v>
+        <v>820</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15948,12 +15948,12 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15968,7 +15968,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
+          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15983,11 +15983,11 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
+          <t>Compañía de Inversiones Mobiliarias Limitada</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>820</v>
+        <v>850</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -15996,12 +15996,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -18416,7 +18416,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -18444,12 +18444,12 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">
@@ -18464,7 +18464,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -18492,12 +18492,12 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
@@ -22064,7 +22064,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Instalación Planta de Tratamiento de Aguas Servidas</t>
+          <t>Planta de Tratamiento de Aguas Servidas. Condominio las Brisas de Chicureo</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -22083,7 +22083,7 @@
         </is>
       </c>
       <c r="F453" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G453" t="inlineStr">
         <is>
@@ -22097,7 +22097,7 @@
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2578&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=112&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
@@ -22112,7 +22112,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas. Condominio las Brisas de Chicureo</t>
+          <t>Instalación Planta de Tratamiento de Aguas Servidas</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -22131,7 +22131,7 @@
         </is>
       </c>
       <c r="F454" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G454" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=112&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2578&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Los Portones de San Luis</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,16 +4418,16 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1200</v>
+        <v>17890</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,16 +4466,16 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>9200</v>
+        <v>1200</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,16 +4514,16 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>9200</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Los Portones de San Luis</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,16 +4562,16 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Inmobiliaria PY S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>17890</v>
+        <v>0</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4580,12 +4580,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,11 +6199,11 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SOCIEDAD DISEPLA LTDA.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>800</v>
+        <v>986</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6212,12 +6212,12 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,11 +6247,11 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>SOCIEDAD DISEPLA LTDA.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>986</v>
+        <v>800</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6260,12 +6260,12 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9895,7 +9895,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F199" t="n">
@@ -9908,12 +9908,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9943,7 +9943,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F200" t="n">
@@ -9956,12 +9956,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9991,11 +9991,11 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10004,12 +10004,12 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10039,11 +10039,11 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10052,12 +10052,12 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
+          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10519,11 +10519,11 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Plasticos Montesa Ltda.</t>
+          <t>Anglo American Sur S.A.</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>1196</v>
+        <v>2000</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -10532,12 +10532,12 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
+          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10567,11 +10567,11 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Anglo American Sur S.A.</t>
+          <t>Plasticos Montesa Ltda.</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>2000</v>
+        <v>1196</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
@@ -10580,12 +10580,12 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -12760,7 +12760,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -12770,16 +12770,16 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F259" t="n">
-        <v>80</v>
+        <v>1700</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
@@ -12788,12 +12788,12 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
@@ -12808,7 +12808,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12818,16 +12818,16 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>1700</v>
+        <v>80</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -12836,12 +12836,12 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -15920,7 +15920,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
+          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15935,11 +15935,11 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
+          <t>Compañía de Inversiones Mobiliarias Limitada</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>820</v>
+        <v>850</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15948,12 +15948,12 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15968,7 +15968,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
+          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15983,11 +15983,11 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Compañía de Inversiones Mobiliarias Limitada</t>
+          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>850</v>
+        <v>820</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -15996,12 +15996,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -18416,7 +18416,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -18444,12 +18444,12 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">
@@ -18464,7 +18464,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -18492,12 +18492,12 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Los Portones de San Luis</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,16 +4418,16 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Inmobiliaria PY S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>17890</v>
+        <v>1200</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,16 +4466,16 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1200</v>
+        <v>9200</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,16 +4514,16 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>9200</v>
+        <v>0</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Los Portones de San Luis</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,16 +4562,16 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>17890</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4580,12 +4580,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,11 +6199,11 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>SOCIEDAD DISEPLA LTDA.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>986</v>
+        <v>800</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6212,12 +6212,12 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,11 +6247,11 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SOCIEDAD DISEPLA LTDA.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>800</v>
+        <v>986</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6260,12 +6260,12 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9895,7 +9895,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F199" t="n">
@@ -9908,12 +9908,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9943,7 +9943,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F200" t="n">
@@ -9956,12 +9956,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9991,11 +9991,11 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10004,12 +10004,12 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10039,11 +10039,11 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10052,12 +10052,12 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
+          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10519,11 +10519,11 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Anglo American Sur S.A.</t>
+          <t>Plasticos Montesa Ltda.</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>2000</v>
+        <v>1196</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -10532,12 +10532,12 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
+          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10567,11 +10567,11 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Plasticos Montesa Ltda.</t>
+          <t>Anglo American Sur S.A.</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>1196</v>
+        <v>2000</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
@@ -10580,12 +10580,12 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -12760,7 +12760,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -12770,16 +12770,16 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F259" t="n">
-        <v>1700</v>
+        <v>80</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
@@ -12788,12 +12788,12 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
@@ -12808,7 +12808,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12818,16 +12818,16 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>80</v>
+        <v>1700</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -12836,12 +12836,12 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -15920,7 +15920,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
+          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15935,11 +15935,11 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Compañía de Inversiones Mobiliarias Limitada</t>
+          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>850</v>
+        <v>820</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15948,12 +15948,12 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15968,7 +15968,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
+          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15983,11 +15983,11 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
+          <t>Compañía de Inversiones Mobiliarias Limitada</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>820</v>
+        <v>850</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -15996,12 +15996,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -18416,7 +18416,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -18444,12 +18444,12 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">
@@ -18464,7 +18464,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -18492,12 +18492,12 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>05/04/2022</t>
+          <t>11/04/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -2084,7 +2084,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Los Portones de San Luis</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,16 +4418,16 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1200</v>
+        <v>17890</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,16 +4466,16 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>9200</v>
+        <v>1200</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,16 +4514,16 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>9200</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Los Portones de San Luis</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,16 +4562,16 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Inmobiliaria PY S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>17890</v>
+        <v>0</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4580,12 +4580,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,11 +6199,11 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SOCIEDAD DISEPLA LTDA.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>800</v>
+        <v>986</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6212,12 +6212,12 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,11 +6247,11 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>SOCIEDAD DISEPLA LTDA.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>986</v>
+        <v>800</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6260,12 +6260,12 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9895,7 +9895,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F199" t="n">
@@ -9908,12 +9908,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9943,7 +9943,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F200" t="n">
@@ -9956,12 +9956,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9991,11 +9991,11 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10004,12 +10004,12 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10039,11 +10039,11 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10052,12 +10052,12 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
+          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10519,11 +10519,11 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Plasticos Montesa Ltda.</t>
+          <t>Anglo American Sur S.A.</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>1196</v>
+        <v>2000</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -10532,12 +10532,12 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
+          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10567,11 +10567,11 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Anglo American Sur S.A.</t>
+          <t>Plasticos Montesa Ltda.</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>2000</v>
+        <v>1196</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
@@ -10580,12 +10580,12 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -12760,7 +12760,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -12770,16 +12770,16 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F259" t="n">
-        <v>80</v>
+        <v>1700</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
@@ -12788,12 +12788,12 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
@@ -12808,7 +12808,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12818,16 +12818,16 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>1700</v>
+        <v>80</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -12836,12 +12836,12 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -15920,7 +15920,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
+          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15935,11 +15935,11 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
+          <t>Compañía de Inversiones Mobiliarias Limitada</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>820</v>
+        <v>850</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15948,12 +15948,12 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15968,7 +15968,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
+          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15983,11 +15983,11 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Compañía de Inversiones Mobiliarias Limitada</t>
+          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>850</v>
+        <v>820</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -15996,12 +15996,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -18416,7 +18416,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -18444,12 +18444,12 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">
@@ -18464,7 +18464,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -18492,12 +18492,12 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -692,7 +692,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Los Portones de San Luis</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,16 +4418,16 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1200</v>
+        <v>17890</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,16 +4466,16 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>9200</v>
+        <v>1200</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,16 +4514,16 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>9200</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Los Portones de San Luis</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,16 +4562,16 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Inmobiliaria PY S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>17890</v>
+        <v>0</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4580,12 +4580,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,11 +6199,11 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SOCIEDAD DISEPLA LTDA.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>800</v>
+        <v>986</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6212,12 +6212,12 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,11 +6247,11 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>SOCIEDAD DISEPLA LTDA.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>986</v>
+        <v>800</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6260,12 +6260,12 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Ampliación de Capacidad para Almacenamiento de Cal Viva</t>
+          <t>Planta de Tratamiento de Agua Potable Chamisero</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7015,11 +7015,11 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Calidra Chile Importaciones Minerales SpA</t>
+          <t>Aguas Manquehue S.A.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>120</v>
+        <v>4335</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6130704&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089108&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Agua Potable Chamisero</t>
+          <t>Ampliación de Capacidad para Almacenamiento de Cal Viva</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7063,11 +7063,11 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Aguas Manquehue S.A.</t>
+          <t>Calidra Chile Importaciones Minerales SpA</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>4335</v>
+        <v>120</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089108&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6130704&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9895,7 +9895,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F199" t="n">
@@ -9908,12 +9908,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9943,7 +9943,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F200" t="n">
@@ -9956,12 +9956,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9991,11 +9991,11 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10004,12 +10004,12 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10039,11 +10039,11 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10052,12 +10052,12 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
+          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10519,11 +10519,11 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Plasticos Montesa Ltda.</t>
+          <t>Anglo American Sur S.A.</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>1196</v>
+        <v>2000</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -10532,12 +10532,12 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
+          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10567,11 +10567,11 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Anglo American Sur S.A.</t>
+          <t>Plasticos Montesa Ltda.</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>2000</v>
+        <v>1196</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
@@ -10580,12 +10580,12 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -12760,7 +12760,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -12770,16 +12770,16 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F259" t="n">
-        <v>80</v>
+        <v>1700</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
@@ -12788,12 +12788,12 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
@@ -12808,7 +12808,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12818,16 +12818,16 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>1700</v>
+        <v>80</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -12836,12 +12836,12 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -15920,7 +15920,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
+          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15935,11 +15935,11 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
+          <t>Compañía de Inversiones Mobiliarias Limitada</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>820</v>
+        <v>850</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15948,12 +15948,12 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15968,7 +15968,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
+          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15983,11 +15983,11 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Compañía de Inversiones Mobiliarias Limitada</t>
+          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>850</v>
+        <v>820</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -15996,12 +15996,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -18416,7 +18416,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -18444,12 +18444,12 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">
@@ -18464,7 +18464,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -18492,12 +18492,12 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Los Portones de San Luis</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,16 +4418,16 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Inmobiliaria PY S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>17890</v>
+        <v>1200</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,16 +4466,16 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1200</v>
+        <v>9200</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,16 +4514,16 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>9200</v>
+        <v>0</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Los Portones de San Luis</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,16 +4562,16 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>17890</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4580,12 +4580,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,11 +6199,11 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>SOCIEDAD DISEPLA LTDA.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>986</v>
+        <v>800</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6212,12 +6212,12 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,11 +6247,11 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SOCIEDAD DISEPLA LTDA.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>800</v>
+        <v>986</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6260,12 +6260,12 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Agua Potable Chamisero</t>
+          <t>Ampliación de Capacidad para Almacenamiento de Cal Viva</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7015,11 +7015,11 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Aguas Manquehue S.A.</t>
+          <t>Calidra Chile Importaciones Minerales SpA</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>4335</v>
+        <v>120</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089108&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6130704&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Ampliación de Capacidad para Almacenamiento de Cal Viva</t>
+          <t>Planta de Tratamiento de Agua Potable Chamisero</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7063,11 +7063,11 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Calidra Chile Importaciones Minerales SpA</t>
+          <t>Aguas Manquehue S.A.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>120</v>
+        <v>4335</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6130704&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089108&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9895,7 +9895,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F199" t="n">
@@ -9908,12 +9908,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9943,7 +9943,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F200" t="n">
@@ -9956,12 +9956,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9991,11 +9991,11 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10004,12 +10004,12 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10039,11 +10039,11 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10052,12 +10052,12 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
+          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10519,11 +10519,11 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Anglo American Sur S.A.</t>
+          <t>Plasticos Montesa Ltda.</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>2000</v>
+        <v>1196</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -10532,12 +10532,12 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
+          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10567,11 +10567,11 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Plasticos Montesa Ltda.</t>
+          <t>Anglo American Sur S.A.</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>1196</v>
+        <v>2000</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
@@ -10580,12 +10580,12 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -12760,7 +12760,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -12770,16 +12770,16 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F259" t="n">
-        <v>1700</v>
+        <v>80</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
@@ -12788,12 +12788,12 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
@@ -12808,7 +12808,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12818,16 +12818,16 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>80</v>
+        <v>1700</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -12836,12 +12836,12 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -15920,7 +15920,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
+          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15935,11 +15935,11 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Compañía de Inversiones Mobiliarias Limitada</t>
+          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>850</v>
+        <v>820</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15948,12 +15948,12 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15968,7 +15968,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
+          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15983,11 +15983,11 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
+          <t>Compañía de Inversiones Mobiliarias Limitada</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>820</v>
+        <v>850</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -15996,12 +15996,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -18416,7 +18416,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -18444,12 +18444,12 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">
@@ -18464,7 +18464,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -18492,12 +18492,12 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -20687,7 +20687,7 @@
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Guardia Vieja S.A.</t>
+          <t>Alfa Transmisora de Energía S.A.</t>
         </is>
       </c>
       <c r="F424" t="n">
@@ -21839,7 +21839,7 @@
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>Colbún Transmisión SA</t>
+          <t>Alfa Transmisora de Energía S.A.</t>
         </is>
       </c>
       <c r="F448" t="n">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -740,7 +740,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Los Portones de San Luis</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,16 +4418,16 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1200</v>
+        <v>17890</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,16 +4466,16 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>9200</v>
+        <v>1200</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,16 +4514,16 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>9200</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Los Portones de San Luis</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,16 +4562,16 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Inmobiliaria PY S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>17890</v>
+        <v>0</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4580,12 +4580,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,11 +6199,11 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SOCIEDAD DISEPLA LTDA.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>800</v>
+        <v>986</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6212,12 +6212,12 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,11 +6247,11 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>SOCIEDAD DISEPLA LTDA.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>986</v>
+        <v>800</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6260,12 +6260,12 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9895,7 +9895,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F199" t="n">
@@ -9908,12 +9908,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9943,7 +9943,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F200" t="n">
@@ -9956,12 +9956,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9991,11 +9991,11 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10004,12 +10004,12 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10039,11 +10039,11 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10052,12 +10052,12 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
+          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10519,11 +10519,11 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Plasticos Montesa Ltda.</t>
+          <t>Anglo American Sur S.A.</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>1196</v>
+        <v>2000</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -10532,12 +10532,12 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
+          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10567,11 +10567,11 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Anglo American Sur S.A.</t>
+          <t>Plasticos Montesa Ltda.</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>2000</v>
+        <v>1196</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
@@ -10580,12 +10580,12 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -12760,7 +12760,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -12770,16 +12770,16 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F259" t="n">
-        <v>80</v>
+        <v>1700</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
@@ -12788,12 +12788,12 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
@@ -12808,7 +12808,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12818,16 +12818,16 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>1700</v>
+        <v>80</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -12836,12 +12836,12 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -15920,7 +15920,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
+          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15935,11 +15935,11 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
+          <t>Compañía de Inversiones Mobiliarias Limitada</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>820</v>
+        <v>850</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15948,12 +15948,12 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15968,7 +15968,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
+          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15983,11 +15983,11 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Compañía de Inversiones Mobiliarias Limitada</t>
+          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>850</v>
+        <v>820</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -15996,12 +15996,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -18416,7 +18416,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -18444,12 +18444,12 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">
@@ -18464,7 +18464,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -18492,12 +18492,12 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -13679,7 +13679,7 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>Minera Cerro Dominador S.A.</t>
+          <t>Salva-21 SpA</t>
         </is>
       </c>
       <c r="F278" t="n">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Los Portones de San Luis</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,16 +4466,16 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Inmobiliaria PY S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>17890</v>
+        <v>1200</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4484,12 +4484,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,16 +4514,16 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1200</v>
+        <v>9200</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,16 +4562,16 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>9200</v>
+        <v>0</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Los Portones de San Luis</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,16 +4610,16 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>17890</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -4628,12 +4628,12 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,11 +6247,11 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>SOCIEDAD DISEPLA LTDA.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>986</v>
+        <v>800</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6260,12 +6260,12 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,11 +6295,11 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SOCIEDAD DISEPLA LTDA.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>800</v>
+        <v>986</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -6308,12 +6308,12 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9943,7 +9943,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F200" t="n">
@@ -9956,12 +9956,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9991,7 +9991,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F201" t="n">
@@ -10004,12 +10004,12 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10039,11 +10039,11 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10052,12 +10052,12 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,11 +10087,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10100,12 +10100,12 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
+          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10567,11 +10567,11 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Anglo American Sur S.A.</t>
+          <t>Plasticos Montesa Ltda.</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>2000</v>
+        <v>1196</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
@@ -10580,12 +10580,12 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
+          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10615,11 +10615,11 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Plasticos Montesa Ltda.</t>
+          <t>Anglo American Sur S.A.</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>1196</v>
+        <v>2000</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
@@ -10628,12 +10628,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -12808,7 +12808,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12818,16 +12818,16 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>1700</v>
+        <v>80</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -12836,12 +12836,12 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -12856,7 +12856,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12866,16 +12866,16 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>80</v>
+        <v>1700</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12884,12 +12884,12 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -15968,7 +15968,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
+          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15983,11 +15983,11 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Compañía de Inversiones Mobiliarias Limitada</t>
+          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>850</v>
+        <v>820</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -15996,12 +15996,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16016,7 +16016,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
+          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16031,11 +16031,11 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
+          <t>Compañía de Inversiones Mobiliarias Limitada</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>820</v>
+        <v>850</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16044,12 +16044,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -18464,7 +18464,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -18492,12 +18492,12 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
@@ -18512,7 +18512,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -18540,12 +18540,12 @@
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J379" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>13/10/2022</t>
+          <t>18/11/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Los Portones de San Luis</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,16 +4514,16 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1200</v>
+        <v>17890</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4532,12 +4532,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,16 +4562,16 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>9200</v>
+        <v>1200</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,16 +4610,16 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>9200</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Los Portones de San Luis</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,16 +4658,16 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Inmobiliaria PY S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>17890</v>
+        <v>0</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -4676,12 +4676,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,11 +6295,11 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SOCIEDAD DISEPLA LTDA.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>800</v>
+        <v>986</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -6308,12 +6308,12 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,11 +6343,11 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>SOCIEDAD DISEPLA LTDA.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>986</v>
+        <v>800</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6356,12 +6356,12 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Ampliación de Capacidad para Almacenamiento de Cal Viva</t>
+          <t>Planta de Tratamiento de Agua Potable Chamisero</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7111,11 +7111,11 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Calidra Chile Importaciones Minerales SpA</t>
+          <t>Aguas Manquehue S.A.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>120</v>
+        <v>4335</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6130704&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089108&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Agua Potable Chamisero</t>
+          <t>Ampliación de Capacidad para Almacenamiento de Cal Viva</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7159,11 +7159,11 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Aguas Manquehue S.A.</t>
+          <t>Calidra Chile Importaciones Minerales SpA</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>4335</v>
+        <v>120</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089108&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6130704&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9991,7 +9991,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F201" t="n">
@@ -10004,12 +10004,12 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10039,7 +10039,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F202" t="n">
@@ -10052,12 +10052,12 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,11 +10087,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10100,12 +10100,12 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,11 +10135,11 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10148,12 +10148,12 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
+          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10615,11 +10615,11 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Plasticos Montesa Ltda.</t>
+          <t>Anglo American Sur S.A.</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>1196</v>
+        <v>2000</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
@@ -10628,12 +10628,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
+          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10663,11 +10663,11 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Anglo American Sur S.A.</t>
+          <t>Plasticos Montesa Ltda.</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>2000</v>
+        <v>1196</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -10676,12 +10676,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -12856,7 +12856,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12866,16 +12866,16 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>80</v>
+        <v>1700</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12884,12 +12884,12 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12914,16 +12914,16 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>1700</v>
+        <v>80</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12932,12 +12932,12 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -16016,7 +16016,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
+          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16031,11 +16031,11 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
+          <t>Compañía de Inversiones Mobiliarias Limitada</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>820</v>
+        <v>850</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16044,12 +16044,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -16064,7 +16064,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
+          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16079,11 +16079,11 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Compañía de Inversiones Mobiliarias Limitada</t>
+          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>850</v>
+        <v>820</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16092,12 +16092,12 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -18512,7 +18512,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -18540,12 +18540,12 @@
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J379" t="inlineStr">
@@ -18560,7 +18560,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -18588,12 +18588,12 @@
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J380" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -932,7 +932,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Los Portones de San Luis</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,16 +4514,16 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Inmobiliaria PY S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>17890</v>
+        <v>1200</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4532,12 +4532,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,16 +4562,16 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>1200</v>
+        <v>9200</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,16 +4610,16 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>9200</v>
+        <v>0</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Los Portones de San Luis</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,16 +4658,16 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>17890</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -4676,12 +4676,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,11 +6295,11 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>SOCIEDAD DISEPLA LTDA.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>986</v>
+        <v>800</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -6308,12 +6308,12 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,11 +6343,11 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SOCIEDAD DISEPLA LTDA.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>800</v>
+        <v>986</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6356,12 +6356,12 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Agua Potable Chamisero</t>
+          <t>Ampliación de Capacidad para Almacenamiento de Cal Viva</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7111,11 +7111,11 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Aguas Manquehue S.A.</t>
+          <t>Calidra Chile Importaciones Minerales SpA</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>4335</v>
+        <v>120</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089108&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6130704&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Ampliación de Capacidad para Almacenamiento de Cal Viva</t>
+          <t>Planta de Tratamiento de Agua Potable Chamisero</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7159,11 +7159,11 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Calidra Chile Importaciones Minerales SpA</t>
+          <t>Aguas Manquehue S.A.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>120</v>
+        <v>4335</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6130704&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089108&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9991,7 +9991,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F201" t="n">
@@ -10004,12 +10004,12 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10039,7 +10039,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F202" t="n">
@@ -10052,12 +10052,12 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,11 +10087,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10100,12 +10100,12 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,11 +10135,11 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10148,12 +10148,12 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
+          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10615,11 +10615,11 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Anglo American Sur S.A.</t>
+          <t>Plasticos Montesa Ltda.</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>2000</v>
+        <v>1196</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
@@ -10628,12 +10628,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
+          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10663,11 +10663,11 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Plasticos Montesa Ltda.</t>
+          <t>Anglo American Sur S.A.</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>1196</v>
+        <v>2000</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -10676,12 +10676,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -12856,7 +12856,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12866,16 +12866,16 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>1700</v>
+        <v>80</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12884,12 +12884,12 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12914,16 +12914,16 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>80</v>
+        <v>1700</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12932,12 +12932,12 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -16016,7 +16016,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
+          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16031,11 +16031,11 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Compañía de Inversiones Mobiliarias Limitada</t>
+          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>850</v>
+        <v>820</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16044,12 +16044,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -16064,7 +16064,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
+          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16079,11 +16079,11 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
+          <t>Compañía de Inversiones Mobiliarias Limitada</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>820</v>
+        <v>850</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16092,12 +16092,12 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -18512,7 +18512,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -18540,12 +18540,12 @@
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J379" t="inlineStr">
@@ -18560,7 +18560,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -18588,12 +18588,12 @@
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J380" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Los Portones de San Luis</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,16 +4514,16 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1200</v>
+        <v>17890</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4532,12 +4532,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,16 +4562,16 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>9200</v>
+        <v>1200</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,16 +4610,16 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>9200</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Los Portones de San Luis</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,16 +4658,16 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Inmobiliaria PY S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>17890</v>
+        <v>0</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -4676,12 +4676,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,11 +6295,11 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SOCIEDAD DISEPLA LTDA.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>800</v>
+        <v>986</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -6308,12 +6308,12 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,11 +6343,11 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>SOCIEDAD DISEPLA LTDA.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>986</v>
+        <v>800</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6356,12 +6356,12 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9991,7 +9991,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F201" t="n">
@@ -10004,12 +10004,12 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10039,7 +10039,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F202" t="n">
@@ -10052,12 +10052,12 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,11 +10087,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10100,12 +10100,12 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,11 +10135,11 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10148,12 +10148,12 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
+          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10615,11 +10615,11 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Plasticos Montesa Ltda.</t>
+          <t>Anglo American Sur S.A.</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>1196</v>
+        <v>2000</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
@@ -10628,12 +10628,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
+          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10663,11 +10663,11 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Anglo American Sur S.A.</t>
+          <t>Plasticos Montesa Ltda.</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>2000</v>
+        <v>1196</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -10676,12 +10676,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -12856,7 +12856,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12866,16 +12866,16 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>80</v>
+        <v>1700</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12884,12 +12884,12 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12914,16 +12914,16 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>1700</v>
+        <v>80</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12932,12 +12932,12 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -16016,7 +16016,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
+          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16031,11 +16031,11 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
+          <t>Compañía de Inversiones Mobiliarias Limitada</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>820</v>
+        <v>850</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16044,12 +16044,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -16064,7 +16064,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
+          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16079,11 +16079,11 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Compañía de Inversiones Mobiliarias Limitada</t>
+          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>850</v>
+        <v>820</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16092,12 +16092,12 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -18512,7 +18512,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -18540,12 +18540,12 @@
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J379" t="inlineStr">
@@ -18560,7 +18560,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -18588,12 +18588,12 @@
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J380" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DIA Centro Logístico Portland</t>
+          <t>PARQUE SOLAR COLINA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,15 +439,15 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Inmobiliaria la Montaña SpA</t>
+          <t>VIA AURORA VR46 SPA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>80190</v>
+        <v>80000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/10/2022</t>
+          <t>21/10/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -457,7 +457,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156843981&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155857104&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PARQUE SOLAR COLINA</t>
+          <t>DIA Centro Logístico Portland</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,11 +487,11 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>VIA AURORA VR46 SPA</t>
+          <t>Inmobiliaria la Montaña SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>80000</v>
+        <v>80190</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -500,12 +500,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155857104&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156843981&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Los Portones de San Luis</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,16 +4514,16 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Inmobiliaria PY S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>17890</v>
+        <v>1200</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4532,12 +4532,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,16 +4562,16 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>1200</v>
+        <v>9200</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,16 +4610,16 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>9200</v>
+        <v>0</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Los Portones de San Luis</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,16 +4658,16 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>17890</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -4676,12 +4676,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,11 +6295,11 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>SOCIEDAD DISEPLA LTDA.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>986</v>
+        <v>800</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -6308,12 +6308,12 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,11 +6343,11 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SOCIEDAD DISEPLA LTDA.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>800</v>
+        <v>986</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6356,12 +6356,12 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9991,7 +9991,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F201" t="n">
@@ -10004,12 +10004,12 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10039,7 +10039,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F202" t="n">
@@ -10052,12 +10052,12 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,11 +10087,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10100,12 +10100,12 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,11 +10135,11 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10148,12 +10148,12 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
+          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10615,11 +10615,11 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Anglo American Sur S.A.</t>
+          <t>Plasticos Montesa Ltda.</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>2000</v>
+        <v>1196</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
@@ -10628,12 +10628,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
+          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10663,11 +10663,11 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Plasticos Montesa Ltda.</t>
+          <t>Anglo American Sur S.A.</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>1196</v>
+        <v>2000</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -10676,12 +10676,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -12856,7 +12856,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12866,16 +12866,16 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>1700</v>
+        <v>80</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12884,12 +12884,12 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12914,16 +12914,16 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>80</v>
+        <v>1700</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12932,12 +12932,12 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -16016,7 +16016,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
+          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16031,11 +16031,11 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Compañía de Inversiones Mobiliarias Limitada</t>
+          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>850</v>
+        <v>820</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16044,12 +16044,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -16064,7 +16064,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
+          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16079,11 +16079,11 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
+          <t>Compañía de Inversiones Mobiliarias Limitada</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>820</v>
+        <v>850</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16092,12 +16092,12 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -18512,7 +18512,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -18540,12 +18540,12 @@
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J379" t="inlineStr">
@@ -18560,7 +18560,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -18588,12 +18588,12 @@
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J380" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Los Portones de San Luis</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,16 +4514,16 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Inmobiliaria PY S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>17890</v>
+        <v>1200</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4532,12 +4532,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,16 +4562,16 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>1200</v>
+        <v>9200</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,16 +4610,16 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>9200</v>
+        <v>0</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Los Portones de San Luis</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,16 +4658,16 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>17890</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -4676,12 +4676,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,11 +6295,11 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>SOCIEDAD DISEPLA LTDA.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>986</v>
+        <v>800</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -6308,12 +6308,12 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,11 +6343,11 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SOCIEDAD DISEPLA LTDA.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>800</v>
+        <v>986</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6356,12 +6356,12 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9991,7 +9991,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F201" t="n">
@@ -10004,12 +10004,12 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10039,7 +10039,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F202" t="n">
@@ -10052,12 +10052,12 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,11 +10087,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10100,12 +10100,12 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,11 +10135,11 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10148,12 +10148,12 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
+          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10615,11 +10615,11 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Anglo American Sur S.A.</t>
+          <t>Plasticos Montesa Ltda.</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>2000</v>
+        <v>1196</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
@@ -10628,12 +10628,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
+          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10663,11 +10663,11 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Plasticos Montesa Ltda.</t>
+          <t>Anglo American Sur S.A.</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>1196</v>
+        <v>2000</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -10676,12 +10676,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -12856,7 +12856,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12866,16 +12866,16 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>1700</v>
+        <v>80</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12884,12 +12884,12 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12914,16 +12914,16 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>80</v>
+        <v>1700</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12932,12 +12932,12 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -16016,7 +16016,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
+          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16031,11 +16031,11 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Compañía de Inversiones Mobiliarias Limitada</t>
+          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>850</v>
+        <v>820</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16044,12 +16044,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -16064,7 +16064,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
+          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16079,11 +16079,11 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
+          <t>Compañía de Inversiones Mobiliarias Limitada</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>820</v>
+        <v>850</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16092,12 +16092,12 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -18512,7 +18512,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -18540,12 +18540,12 @@
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J379" t="inlineStr">
@@ -18560,7 +18560,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -18588,12 +18588,12 @@
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J380" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Los Portones de San Luis</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,16 +4562,16 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>1200</v>
+        <v>17890</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4580,12 +4580,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,16 +4610,16 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>9200</v>
+        <v>1200</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,16 +4658,16 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>9200</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Los Portones de San Luis</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4706,16 +4706,16 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Inmobiliaria PY S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>17890</v>
+        <v>0</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -4724,12 +4724,12 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,11 +6343,11 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SOCIEDAD DISEPLA LTDA.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>800</v>
+        <v>986</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6356,12 +6356,12 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,11 +6391,11 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>SOCIEDAD DISEPLA LTDA.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>986</v>
+        <v>800</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6404,12 +6404,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10039,7 +10039,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F202" t="n">
@@ -10052,12 +10052,12 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,7 +10087,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F203" t="n">
@@ -10100,12 +10100,12 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,11 +10135,11 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10148,12 +10148,12 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10183,11 +10183,11 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10196,12 +10196,12 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
+          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10663,11 +10663,11 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Plasticos Montesa Ltda.</t>
+          <t>Anglo American Sur S.A.</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>1196</v>
+        <v>2000</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -10676,12 +10676,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
+          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10711,11 +10711,11 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Anglo American Sur S.A.</t>
+          <t>Plasticos Montesa Ltda.</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>2000</v>
+        <v>1196</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12914,16 +12914,16 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>80</v>
+        <v>1700</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12932,12 +12932,12 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -12952,7 +12952,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -12962,16 +12962,16 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>1700</v>
+        <v>80</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12980,12 +12980,12 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -16064,7 +16064,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
+          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16079,11 +16079,11 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
+          <t>Compañía de Inversiones Mobiliarias Limitada</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>820</v>
+        <v>850</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16092,12 +16092,12 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -16112,7 +16112,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
+          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16127,11 +16127,11 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Compañía de Inversiones Mobiliarias Limitada</t>
+          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>850</v>
+        <v>820</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16140,12 +16140,12 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -18560,7 +18560,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -18588,12 +18588,12 @@
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J380" t="inlineStr">
@@ -18608,7 +18608,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -18636,12 +18636,12 @@
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Los Portones de San Luis</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,16 +4562,16 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Inmobiliaria PY S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>17890</v>
+        <v>1200</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4580,12 +4580,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,16 +4610,16 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1200</v>
+        <v>9200</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,16 +4658,16 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>9200</v>
+        <v>0</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Los Portones de San Luis</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4706,16 +4706,16 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>17890</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -4724,12 +4724,12 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,11 +6343,11 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>SOCIEDAD DISEPLA LTDA.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>986</v>
+        <v>800</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6356,12 +6356,12 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,11 +6391,11 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SOCIEDAD DISEPLA LTDA.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>800</v>
+        <v>986</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6404,12 +6404,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10039,7 +10039,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F202" t="n">
@@ -10052,12 +10052,12 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,7 +10087,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F203" t="n">
@@ -10100,12 +10100,12 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,11 +10135,11 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10148,12 +10148,12 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10183,11 +10183,11 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10196,12 +10196,12 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
+          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10663,11 +10663,11 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Anglo American Sur S.A.</t>
+          <t>Plasticos Montesa Ltda.</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>2000</v>
+        <v>1196</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -10676,12 +10676,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
+          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10711,11 +10711,11 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Plasticos Montesa Ltda.</t>
+          <t>Anglo American Sur S.A.</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>1196</v>
+        <v>2000</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12914,16 +12914,16 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>1700</v>
+        <v>80</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12932,12 +12932,12 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -12952,7 +12952,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -12962,16 +12962,16 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>80</v>
+        <v>1700</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12980,12 +12980,12 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -16064,7 +16064,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
+          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16079,11 +16079,11 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Compañía de Inversiones Mobiliarias Limitada</t>
+          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>850</v>
+        <v>820</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16092,12 +16092,12 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -16112,7 +16112,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
+          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16127,11 +16127,11 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
+          <t>Compañía de Inversiones Mobiliarias Limitada</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>820</v>
+        <v>850</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16140,12 +16140,12 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -18560,7 +18560,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -18588,12 +18588,12 @@
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J380" t="inlineStr">
@@ -18608,7 +18608,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -18636,12 +18636,12 @@
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Los Portones de San Luis</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,16 +4562,16 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Inmobiliaria PY S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>17890</v>
+        <v>1200</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4580,12 +4580,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,16 +4610,16 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1200</v>
+        <v>9200</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,16 +4658,16 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>9200</v>
+        <v>0</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Los Portones de San Luis</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4706,16 +4706,16 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>17890</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -4724,12 +4724,12 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,11 +6343,11 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>SOCIEDAD DISEPLA LTDA.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>986</v>
+        <v>800</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6356,12 +6356,12 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,11 +6391,11 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SOCIEDAD DISEPLA LTDA.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>800</v>
+        <v>986</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6404,12 +6404,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10039,7 +10039,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F202" t="n">
@@ -10052,12 +10052,12 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,7 +10087,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F203" t="n">
@@ -10100,12 +10100,12 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,11 +10135,11 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10148,12 +10148,12 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10183,11 +10183,11 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10196,12 +10196,12 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
+          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10663,11 +10663,11 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Anglo American Sur S.A.</t>
+          <t>Plasticos Montesa Ltda.</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>2000</v>
+        <v>1196</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -10676,12 +10676,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
+          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10711,11 +10711,11 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Plasticos Montesa Ltda.</t>
+          <t>Anglo American Sur S.A.</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>1196</v>
+        <v>2000</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12914,16 +12914,16 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>1700</v>
+        <v>80</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12932,12 +12932,12 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -12952,7 +12952,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -12962,16 +12962,16 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>80</v>
+        <v>1700</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12980,12 +12980,12 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -16064,7 +16064,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
+          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16079,11 +16079,11 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Compañía de Inversiones Mobiliarias Limitada</t>
+          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>850</v>
+        <v>820</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16092,12 +16092,12 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -16112,7 +16112,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
+          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16127,11 +16127,11 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
+          <t>Compañía de Inversiones Mobiliarias Limitada</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>820</v>
+        <v>850</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16140,12 +16140,12 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -18560,7 +18560,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -18588,12 +18588,12 @@
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J380" t="inlineStr">
@@ -18608,7 +18608,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -18636,12 +18636,12 @@
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">
@@ -22175,7 +22175,7 @@
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>Los Parques S.A</t>
+          <t>Los Parques S.A.</t>
         </is>
       </c>
       <c r="F455" t="n">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Los Portones de San Luis</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,16 +4562,16 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>1200</v>
+        <v>17890</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4580,12 +4580,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,16 +4610,16 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>9200</v>
+        <v>1200</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,16 +4658,16 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>9200</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Los Portones de San Luis</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4706,16 +4706,16 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Inmobiliaria PY S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>17890</v>
+        <v>0</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -4724,12 +4724,12 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,11 +6343,11 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SOCIEDAD DISEPLA LTDA.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>800</v>
+        <v>986</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6356,12 +6356,12 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,11 +6391,11 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>SOCIEDAD DISEPLA LTDA.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>986</v>
+        <v>800</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6404,12 +6404,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10039,7 +10039,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F202" t="n">
@@ -10052,12 +10052,12 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,7 +10087,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F203" t="n">
@@ -10100,12 +10100,12 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,11 +10135,11 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10148,12 +10148,12 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10183,11 +10183,11 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10196,12 +10196,12 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
+          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10663,11 +10663,11 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Plasticos Montesa Ltda.</t>
+          <t>Anglo American Sur S.A.</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>1196</v>
+        <v>2000</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -10676,12 +10676,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
+          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10711,11 +10711,11 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Anglo American Sur S.A.</t>
+          <t>Plasticos Montesa Ltda.</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>2000</v>
+        <v>1196</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12914,16 +12914,16 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>80</v>
+        <v>1700</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12932,12 +12932,12 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -12952,7 +12952,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -12962,16 +12962,16 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>1700</v>
+        <v>80</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12980,12 +12980,12 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -16064,7 +16064,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
+          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16079,11 +16079,11 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
+          <t>Compañía de Inversiones Mobiliarias Limitada</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>820</v>
+        <v>850</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16092,12 +16092,12 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -16112,7 +16112,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
+          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16127,11 +16127,11 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Compañía de Inversiones Mobiliarias Limitada</t>
+          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>850</v>
+        <v>820</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16140,12 +16140,12 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -18560,7 +18560,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -18588,12 +18588,12 @@
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J380" t="inlineStr">
@@ -18608,7 +18608,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -18636,12 +18636,12 @@
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -2503,7 +2503,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Aguas PAcifico SpA</t>
+          <t>Acueducto San Isidro Quilapilún SpA</t>
         </is>
       </c>
       <c r="F45" t="n">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Los Portones de San Luis</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,16 +4610,16 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1200</v>
+        <v>17890</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -4628,12 +4628,12 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,16 +4658,16 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>9200</v>
+        <v>1200</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4706,16 +4706,16 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>9200</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Los Portones de San Luis</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4754,16 +4754,16 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Inmobiliaria PY S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>17890</v>
+        <v>0</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -4772,12 +4772,12 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,11 +6391,11 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SOCIEDAD DISEPLA LTDA.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>800</v>
+        <v>986</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6404,12 +6404,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6439,11 +6439,11 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>SOCIEDAD DISEPLA LTDA.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>986</v>
+        <v>800</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -6452,12 +6452,12 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,7 +10087,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F203" t="n">
@@ -10100,12 +10100,12 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,7 +10135,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F204" t="n">
@@ -10148,12 +10148,12 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10183,11 +10183,11 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10196,12 +10196,12 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10231,11 +10231,11 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
+          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10711,11 +10711,11 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Plasticos Montesa Ltda.</t>
+          <t>Anglo American Sur S.A.</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>1196</v>
+        <v>2000</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
+          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10759,11 +10759,11 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Anglo American Sur S.A.</t>
+          <t>Plasticos Montesa Ltda.</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>2000</v>
+        <v>1196</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10772,12 +10772,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -12952,7 +12952,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -12962,16 +12962,16 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>80</v>
+        <v>1700</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12980,12 +12980,12 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -13000,7 +13000,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13010,16 +13010,16 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>1700</v>
+        <v>80</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13028,12 +13028,12 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -16112,7 +16112,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
+          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16127,11 +16127,11 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
+          <t>Compañía de Inversiones Mobiliarias Limitada</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>820</v>
+        <v>850</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16140,12 +16140,12 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -16160,7 +16160,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
+          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16175,11 +16175,11 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Compañía de Inversiones Mobiliarias Limitada</t>
+          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>850</v>
+        <v>820</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16188,12 +16188,12 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -18608,7 +18608,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -18636,12 +18636,12 @@
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">
@@ -18656,7 +18656,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -18684,12 +18684,12 @@
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Los Portones de San Luis</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,16 +4610,16 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Inmobiliaria PY S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>17890</v>
+        <v>1200</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -4628,12 +4628,12 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,16 +4658,16 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1200</v>
+        <v>9200</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4706,16 +4706,16 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>9200</v>
+        <v>0</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Los Portones de San Luis</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4754,16 +4754,16 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>17890</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -4772,12 +4772,12 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,11 +6391,11 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>SOCIEDAD DISEPLA LTDA.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>986</v>
+        <v>800</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6404,12 +6404,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6439,11 +6439,11 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SOCIEDAD DISEPLA LTDA.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>800</v>
+        <v>986</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -6452,12 +6452,12 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,7 +10087,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F203" t="n">
@@ -10100,12 +10100,12 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,7 +10135,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F204" t="n">
@@ -10148,12 +10148,12 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10183,11 +10183,11 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10196,12 +10196,12 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10231,11 +10231,11 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
+          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10711,11 +10711,11 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Anglo American Sur S.A.</t>
+          <t>Plasticos Montesa Ltda.</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>2000</v>
+        <v>1196</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
+          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10759,11 +10759,11 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Plasticos Montesa Ltda.</t>
+          <t>Anglo American Sur S.A.</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>1196</v>
+        <v>2000</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10772,12 +10772,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -12952,7 +12952,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -12962,16 +12962,16 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>1700</v>
+        <v>80</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12980,12 +12980,12 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -13000,7 +13000,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13010,16 +13010,16 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>80</v>
+        <v>1700</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13028,12 +13028,12 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -16112,7 +16112,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
+          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16127,11 +16127,11 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Compañía de Inversiones Mobiliarias Limitada</t>
+          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>850</v>
+        <v>820</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16140,12 +16140,12 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -16160,7 +16160,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
+          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16175,11 +16175,11 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
+          <t>Compañía de Inversiones Mobiliarias Limitada</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>820</v>
+        <v>850</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16188,12 +16188,12 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -18608,7 +18608,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -18636,12 +18636,12 @@
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">
@@ -18656,7 +18656,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -18684,12 +18684,12 @@
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Los Portones de San Luis</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,16 +4658,16 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1200</v>
+        <v>17890</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -4676,12 +4676,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4706,16 +4706,16 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>9200</v>
+        <v>1200</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4754,16 +4754,16 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>9200</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Los Portones de San Luis</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4802,16 +4802,16 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Inmobiliaria PY S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>17890</v>
+        <v>0</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4820,12 +4820,12 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6439,11 +6439,11 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SOCIEDAD DISEPLA LTDA.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>800</v>
+        <v>986</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -6452,12 +6452,12 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6487,11 +6487,11 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>SOCIEDAD DISEPLA LTDA.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>986</v>
+        <v>800</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -6500,12 +6500,12 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,7 +10135,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F204" t="n">
@@ -10148,12 +10148,12 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10183,7 +10183,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F205" t="n">
@@ -10196,12 +10196,12 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10231,11 +10231,11 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10279,11 +10279,11 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
+          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10759,11 +10759,11 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Plasticos Montesa Ltda.</t>
+          <t>Anglo American Sur S.A.</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>1196</v>
+        <v>2000</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10772,12 +10772,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
+          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10807,11 +10807,11 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Anglo American Sur S.A.</t>
+          <t>Plasticos Montesa Ltda.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>2000</v>
+        <v>1196</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10820,12 +10820,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -13000,7 +13000,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13010,16 +13010,16 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>80</v>
+        <v>1700</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13028,12 +13028,12 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -13048,7 +13048,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13058,16 +13058,16 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F265" t="n">
-        <v>1700</v>
+        <v>80</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13076,12 +13076,12 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -16160,7 +16160,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
+          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16175,11 +16175,11 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
+          <t>Compañía de Inversiones Mobiliarias Limitada</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>820</v>
+        <v>850</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16188,12 +16188,12 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -16208,7 +16208,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
+          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16223,11 +16223,11 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Compañía de Inversiones Mobiliarias Limitada</t>
+          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>850</v>
+        <v>820</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16236,12 +16236,12 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -18656,7 +18656,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -18684,12 +18684,12 @@
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
@@ -18704,7 +18704,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -18732,12 +18732,12 @@
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Los Portones de San Luis</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,16 +4658,16 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Inmobiliaria PY S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>17890</v>
+        <v>1200</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -4676,12 +4676,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4706,16 +4706,16 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1200</v>
+        <v>9200</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4754,16 +4754,16 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>9200</v>
+        <v>0</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Los Portones de San Luis</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4802,16 +4802,16 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>17890</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4820,12 +4820,12 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6439,11 +6439,11 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>SOCIEDAD DISEPLA LTDA.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>986</v>
+        <v>800</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -6452,12 +6452,12 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6487,11 +6487,11 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SOCIEDAD DISEPLA LTDA.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>800</v>
+        <v>986</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -6500,12 +6500,12 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,7 +10135,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F204" t="n">
@@ -10148,12 +10148,12 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10183,7 +10183,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F205" t="n">
@@ -10196,12 +10196,12 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10231,11 +10231,11 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10279,11 +10279,11 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
+          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10759,11 +10759,11 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Anglo American Sur S.A.</t>
+          <t>Plasticos Montesa Ltda.</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>2000</v>
+        <v>1196</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10772,12 +10772,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
+          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10807,11 +10807,11 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Plasticos Montesa Ltda.</t>
+          <t>Anglo American Sur S.A.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>1196</v>
+        <v>2000</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10820,12 +10820,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -13000,7 +13000,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13010,16 +13010,16 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>1700</v>
+        <v>80</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13028,12 +13028,12 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -13048,7 +13048,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13058,16 +13058,16 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F265" t="n">
-        <v>80</v>
+        <v>1700</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13076,12 +13076,12 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -16160,7 +16160,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
+          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16175,11 +16175,11 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Compañía de Inversiones Mobiliarias Limitada</t>
+          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>850</v>
+        <v>820</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16188,12 +16188,12 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -16208,7 +16208,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
+          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16223,11 +16223,11 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
+          <t>Compañía de Inversiones Mobiliarias Limitada</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>820</v>
+        <v>850</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16236,12 +16236,12 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -18656,7 +18656,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -18684,12 +18684,12 @@
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
@@ -18704,7 +18704,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -18732,12 +18732,12 @@
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>12/12/2022</t>
+          <t>15/12/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Ampliación de Capacidad para Almacenamiento de Cal Viva</t>
+          <t>Planta de Tratamiento de Agua Potable Chamisero</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7255,11 +7255,11 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Calidra Chile Importaciones Minerales SpA</t>
+          <t>Aguas Manquehue S.A.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>120</v>
+        <v>4335</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7273,7 +7273,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6130704&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089108&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Agua Potable Chamisero</t>
+          <t>Ampliación de Capacidad para Almacenamiento de Cal Viva</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7303,11 +7303,11 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Aguas Manquehue S.A.</t>
+          <t>Calidra Chile Importaciones Minerales SpA</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>4335</v>
+        <v>120</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089108&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6130704&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Los Portones de San Luis</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,16 +4658,16 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Inmobiliaria PY S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>17890</v>
+        <v>1200</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -4676,12 +4676,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4706,16 +4706,16 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1200</v>
+        <v>9200</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4754,16 +4754,16 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>9200</v>
+        <v>0</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Los Portones de San Luis</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4802,16 +4802,16 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>17890</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4820,12 +4820,12 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6439,11 +6439,11 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>SOCIEDAD DISEPLA LTDA.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>986</v>
+        <v>800</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -6452,12 +6452,12 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6487,11 +6487,11 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SOCIEDAD DISEPLA LTDA.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>800</v>
+        <v>986</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -6500,12 +6500,12 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Agua Potable Chamisero</t>
+          <t>Ampliación de Capacidad para Almacenamiento de Cal Viva</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7255,11 +7255,11 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Aguas Manquehue S.A.</t>
+          <t>Calidra Chile Importaciones Minerales SpA</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>4335</v>
+        <v>120</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7273,7 +7273,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089108&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6130704&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Ampliación de Capacidad para Almacenamiento de Cal Viva</t>
+          <t>Planta de Tratamiento de Agua Potable Chamisero</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7303,11 +7303,11 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Calidra Chile Importaciones Minerales SpA</t>
+          <t>Aguas Manquehue S.A.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>120</v>
+        <v>4335</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6130704&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089108&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,7 +10135,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F204" t="n">
@@ -10148,12 +10148,12 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10183,7 +10183,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F205" t="n">
@@ -10196,12 +10196,12 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10231,11 +10231,11 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10279,11 +10279,11 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
+          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10759,11 +10759,11 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Anglo American Sur S.A.</t>
+          <t>Plasticos Montesa Ltda.</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>2000</v>
+        <v>1196</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10772,12 +10772,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
+          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10807,11 +10807,11 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Plasticos Montesa Ltda.</t>
+          <t>Anglo American Sur S.A.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>1196</v>
+        <v>2000</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10820,12 +10820,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -13000,7 +13000,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13010,16 +13010,16 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>1700</v>
+        <v>80</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13028,12 +13028,12 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -13048,7 +13048,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13058,16 +13058,16 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F265" t="n">
-        <v>80</v>
+        <v>1700</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13076,12 +13076,12 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -16160,7 +16160,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
+          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16175,11 +16175,11 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Compañía de Inversiones Mobiliarias Limitada</t>
+          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>850</v>
+        <v>820</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16188,12 +16188,12 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -16208,7 +16208,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
+          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16223,11 +16223,11 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
+          <t>Compañía de Inversiones Mobiliarias Limitada</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>820</v>
+        <v>850</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16236,12 +16236,12 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -18656,7 +18656,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -18684,12 +18684,12 @@
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
@@ -18704,7 +18704,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -18732,12 +18732,12 @@
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Los Portones de San Luis</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,16 +4658,16 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1200</v>
+        <v>17890</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -4676,12 +4676,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4706,16 +4706,16 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>9200</v>
+        <v>1200</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4754,16 +4754,16 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>9200</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Los Portones de San Luis</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4802,16 +4802,16 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Inmobiliaria PY S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>17890</v>
+        <v>0</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4820,12 +4820,12 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6439,11 +6439,11 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SOCIEDAD DISEPLA LTDA.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>800</v>
+        <v>986</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -6452,12 +6452,12 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6487,11 +6487,11 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>SOCIEDAD DISEPLA LTDA.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>986</v>
+        <v>800</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -6500,12 +6500,12 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Ampliación de Capacidad para Almacenamiento de Cal Viva</t>
+          <t>Planta de Tratamiento de Agua Potable Chamisero</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7255,11 +7255,11 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Calidra Chile Importaciones Minerales SpA</t>
+          <t>Aguas Manquehue S.A.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>120</v>
+        <v>4335</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7273,7 +7273,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6130704&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089108&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Agua Potable Chamisero</t>
+          <t>Ampliación de Capacidad para Almacenamiento de Cal Viva</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7303,11 +7303,11 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Aguas Manquehue S.A.</t>
+          <t>Calidra Chile Importaciones Minerales SpA</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>4335</v>
+        <v>120</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089108&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6130704&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,7 +10135,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F204" t="n">
@@ -10148,12 +10148,12 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10183,7 +10183,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F205" t="n">
@@ -10196,12 +10196,12 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10231,11 +10231,11 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10279,11 +10279,11 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
+          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10759,11 +10759,11 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Plasticos Montesa Ltda.</t>
+          <t>Anglo American Sur S.A.</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>1196</v>
+        <v>2000</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10772,12 +10772,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
+          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10807,11 +10807,11 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Anglo American Sur S.A.</t>
+          <t>Plasticos Montesa Ltda.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>2000</v>
+        <v>1196</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10820,12 +10820,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -13000,7 +13000,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13010,16 +13010,16 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>80</v>
+        <v>1700</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13028,12 +13028,12 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -13048,7 +13048,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13058,16 +13058,16 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F265" t="n">
-        <v>1700</v>
+        <v>80</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13076,12 +13076,12 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -16160,7 +16160,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
+          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16175,11 +16175,11 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
+          <t>Compañía de Inversiones Mobiliarias Limitada</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>820</v>
+        <v>850</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16188,12 +16188,12 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -16208,7 +16208,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
+          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16223,11 +16223,11 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Compañía de Inversiones Mobiliarias Limitada</t>
+          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>850</v>
+        <v>820</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16236,12 +16236,12 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -18656,7 +18656,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -18684,12 +18684,12 @@
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
@@ -18704,7 +18704,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -18732,12 +18732,12 @@
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -836,7 +836,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1508,7 +1508,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Los Portones de San Luis</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,16 +4658,16 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1200</v>
+        <v>17890</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -4676,12 +4676,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4706,16 +4706,16 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>9200</v>
+        <v>1200</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4754,16 +4754,16 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>9200</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Los Portones de San Luis</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4802,16 +4802,16 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Inmobiliaria PY S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>17890</v>
+        <v>0</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4820,12 +4820,12 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6439,11 +6439,11 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SOCIEDAD DISEPLA LTDA.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>800</v>
+        <v>986</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -6452,12 +6452,12 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6487,11 +6487,11 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>SOCIEDAD DISEPLA LTDA.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>986</v>
+        <v>800</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -6500,12 +6500,12 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,7 +10135,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F204" t="n">
@@ -10148,12 +10148,12 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10183,7 +10183,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F205" t="n">
@@ -10196,12 +10196,12 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10231,11 +10231,11 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10279,11 +10279,11 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
+          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10759,11 +10759,11 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Plasticos Montesa Ltda.</t>
+          <t>Anglo American Sur S.A.</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>1196</v>
+        <v>2000</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10772,12 +10772,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
+          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10807,11 +10807,11 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Anglo American Sur S.A.</t>
+          <t>Plasticos Montesa Ltda.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>2000</v>
+        <v>1196</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10820,12 +10820,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -13000,7 +13000,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13010,16 +13010,16 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>80</v>
+        <v>1700</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13028,12 +13028,12 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -13048,7 +13048,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13058,16 +13058,16 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F265" t="n">
-        <v>1700</v>
+        <v>80</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13076,12 +13076,12 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -16160,7 +16160,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
+          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16175,11 +16175,11 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
+          <t>Compañía de Inversiones Mobiliarias Limitada</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>820</v>
+        <v>850</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16188,12 +16188,12 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -16208,7 +16208,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
+          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16223,11 +16223,11 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Compañía de Inversiones Mobiliarias Limitada</t>
+          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>850</v>
+        <v>820</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16236,12 +16236,12 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -18656,7 +18656,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -18684,12 +18684,12 @@
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
@@ -18704,7 +18704,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -18732,12 +18732,12 @@
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Los Portones de San Luis</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4706,16 +4706,16 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Inmobiliaria PY S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>17890</v>
+        <v>1200</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -4724,12 +4724,12 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4754,16 +4754,16 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1200</v>
+        <v>9200</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4802,16 +4802,16 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>9200</v>
+        <v>0</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Los Portones de San Luis</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4850,16 +4850,16 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>17890</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4868,12 +4868,12 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6487,11 +6487,11 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>SOCIEDAD DISEPLA LTDA.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>986</v>
+        <v>800</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -6500,12 +6500,12 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6535,11 +6535,11 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SOCIEDAD DISEPLA LTDA.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>800</v>
+        <v>986</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -6548,12 +6548,12 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10183,7 +10183,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F205" t="n">
@@ -10196,12 +10196,12 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10231,7 +10231,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F206" t="n">
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10279,11 +10279,11 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10327,11 +10327,11 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
+          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10807,11 +10807,11 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Anglo American Sur S.A.</t>
+          <t>Plasticos Montesa Ltda.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>2000</v>
+        <v>1196</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10820,12 +10820,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
+          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10855,11 +10855,11 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Plasticos Montesa Ltda.</t>
+          <t>Anglo American Sur S.A.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>1196</v>
+        <v>2000</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10868,12 +10868,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -13048,7 +13048,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13058,16 +13058,16 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F265" t="n">
-        <v>1700</v>
+        <v>80</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13076,12 +13076,12 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -13096,7 +13096,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13106,16 +13106,16 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F266" t="n">
-        <v>80</v>
+        <v>1700</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13124,12 +13124,12 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -16208,7 +16208,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
+          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16223,11 +16223,11 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Compañía de Inversiones Mobiliarias Limitada</t>
+          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>850</v>
+        <v>820</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16236,12 +16236,12 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -16256,7 +16256,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
+          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16271,11 +16271,11 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
+          <t>Compañía de Inversiones Mobiliarias Limitada</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>820</v>
+        <v>850</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16284,12 +16284,12 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -18704,7 +18704,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -18732,12 +18732,12 @@
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">
@@ -18752,7 +18752,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -18780,12 +18780,12 @@
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Los Portones de San Luis</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4706,16 +4706,16 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1200</v>
+        <v>17890</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -4724,12 +4724,12 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4754,16 +4754,16 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>9200</v>
+        <v>1200</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4802,16 +4802,16 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>9200</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Los Portones de San Luis</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4850,16 +4850,16 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Inmobiliaria PY S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>17890</v>
+        <v>0</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4868,12 +4868,12 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6487,11 +6487,11 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SOCIEDAD DISEPLA LTDA.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>800</v>
+        <v>986</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -6500,12 +6500,12 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6535,11 +6535,11 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>SOCIEDAD DISEPLA LTDA.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>986</v>
+        <v>800</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -6548,12 +6548,12 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10183,7 +10183,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F205" t="n">
@@ -10196,12 +10196,12 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10231,7 +10231,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F206" t="n">
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10279,11 +10279,11 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10327,11 +10327,11 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
+          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10807,11 +10807,11 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Plasticos Montesa Ltda.</t>
+          <t>Anglo American Sur S.A.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>1196</v>
+        <v>2000</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10820,12 +10820,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
+          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10855,11 +10855,11 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Anglo American Sur S.A.</t>
+          <t>Plasticos Montesa Ltda.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>2000</v>
+        <v>1196</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10868,12 +10868,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -13048,7 +13048,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13058,16 +13058,16 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F265" t="n">
-        <v>80</v>
+        <v>1700</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13076,12 +13076,12 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -13096,7 +13096,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13106,16 +13106,16 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F266" t="n">
-        <v>1700</v>
+        <v>80</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13124,12 +13124,12 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -16208,7 +16208,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
+          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16223,11 +16223,11 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
+          <t>Compañía de Inversiones Mobiliarias Limitada</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>820</v>
+        <v>850</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16236,12 +16236,12 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -16256,7 +16256,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
+          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16271,11 +16271,11 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Compañía de Inversiones Mobiliarias Limitada</t>
+          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>850</v>
+        <v>820</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16284,12 +16284,12 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -18704,7 +18704,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -18732,12 +18732,12 @@
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">
@@ -18752,7 +18752,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -18780,12 +18780,12 @@
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/01/2023</t>
+          <t>23/01/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Los Portones de San Luis</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4754,16 +4754,16 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1200</v>
+        <v>17890</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -4772,12 +4772,12 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4802,16 +4802,16 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>9200</v>
+        <v>1200</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4850,16 +4850,16 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>9200</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Los Portones de San Luis</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4898,16 +4898,16 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Inmobiliaria PY S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>17890</v>
+        <v>0</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4916,12 +4916,12 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6535,11 +6535,11 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SOCIEDAD DISEPLA LTDA.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>800</v>
+        <v>986</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -6548,12 +6548,12 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,11 +6583,11 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>SOCIEDAD DISEPLA LTDA.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>986</v>
+        <v>800</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -6596,12 +6596,12 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Ampliación de Capacidad para Almacenamiento de Cal Viva</t>
+          <t>Planta de Tratamiento de Agua Potable Chamisero</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7351,11 +7351,11 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Calidra Chile Importaciones Minerales SpA</t>
+          <t>Aguas Manquehue S.A.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>120</v>
+        <v>4335</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6130704&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089108&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Agua Potable Chamisero</t>
+          <t>Ampliación de Capacidad para Almacenamiento de Cal Viva</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7399,11 +7399,11 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Aguas Manquehue S.A.</t>
+          <t>Calidra Chile Importaciones Minerales SpA</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>4335</v>
+        <v>120</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089108&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6130704&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10231,7 +10231,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F206" t="n">
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10279,7 +10279,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F207" t="n">
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10327,11 +10327,11 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10375,11 +10375,11 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -10388,12 +10388,12 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
+          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10855,11 +10855,11 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Plasticos Montesa Ltda.</t>
+          <t>Anglo American Sur S.A.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>1196</v>
+        <v>2000</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10868,12 +10868,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
+          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,11 +10903,11 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Anglo American Sur S.A.</t>
+          <t>Plasticos Montesa Ltda.</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>2000</v>
+        <v>1196</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10916,12 +10916,12 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -13096,7 +13096,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13106,16 +13106,16 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F266" t="n">
-        <v>80</v>
+        <v>1700</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13124,12 +13124,12 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13144,7 +13144,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13154,16 +13154,16 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>1700</v>
+        <v>80</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13172,12 +13172,12 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -16256,7 +16256,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
+          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16271,11 +16271,11 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
+          <t>Compañía de Inversiones Mobiliarias Limitada</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>820</v>
+        <v>850</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16284,12 +16284,12 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -16304,7 +16304,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
+          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16319,11 +16319,11 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Compañía de Inversiones Mobiliarias Limitada</t>
+          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>850</v>
+        <v>820</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16332,12 +16332,12 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -18752,7 +18752,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -18780,12 +18780,12 @@
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
@@ -18800,7 +18800,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -18828,12 +18828,12 @@
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Los Portones de San Luis</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4754,16 +4754,16 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Inmobiliaria PY S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>17890</v>
+        <v>1200</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -4772,12 +4772,12 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4802,16 +4802,16 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1200</v>
+        <v>9200</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4850,16 +4850,16 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>9200</v>
+        <v>0</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Los Portones de San Luis</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4898,16 +4898,16 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>17890</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4916,12 +4916,12 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6535,11 +6535,11 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>SOCIEDAD DISEPLA LTDA.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>986</v>
+        <v>800</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -6548,12 +6548,12 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,11 +6583,11 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SOCIEDAD DISEPLA LTDA.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>800</v>
+        <v>986</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -6596,12 +6596,12 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Agua Potable Chamisero</t>
+          <t>Ampliación de Capacidad para Almacenamiento de Cal Viva</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7351,11 +7351,11 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Aguas Manquehue S.A.</t>
+          <t>Calidra Chile Importaciones Minerales SpA</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>4335</v>
+        <v>120</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089108&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6130704&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Ampliación de Capacidad para Almacenamiento de Cal Viva</t>
+          <t>Planta de Tratamiento de Agua Potable Chamisero</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7399,11 +7399,11 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Calidra Chile Importaciones Minerales SpA</t>
+          <t>Aguas Manquehue S.A.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>120</v>
+        <v>4335</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6130704&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089108&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10231,7 +10231,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F206" t="n">
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10279,7 +10279,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F207" t="n">
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10327,11 +10327,11 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10375,11 +10375,11 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -10388,12 +10388,12 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
+          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10855,11 +10855,11 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Anglo American Sur S.A.</t>
+          <t>Plasticos Montesa Ltda.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>2000</v>
+        <v>1196</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10868,12 +10868,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
+          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,11 +10903,11 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Plasticos Montesa Ltda.</t>
+          <t>Anglo American Sur S.A.</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>1196</v>
+        <v>2000</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10916,12 +10916,12 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -13096,7 +13096,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13106,16 +13106,16 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F266" t="n">
-        <v>1700</v>
+        <v>80</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13124,12 +13124,12 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13144,7 +13144,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13154,16 +13154,16 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>80</v>
+        <v>1700</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13172,12 +13172,12 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -16256,7 +16256,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
+          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16271,11 +16271,11 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Compañía de Inversiones Mobiliarias Limitada</t>
+          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>850</v>
+        <v>820</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16284,12 +16284,12 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -16304,7 +16304,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
+          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16319,11 +16319,11 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
+          <t>Compañía de Inversiones Mobiliarias Limitada</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>820</v>
+        <v>850</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16332,12 +16332,12 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -18752,7 +18752,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -18780,12 +18780,12 @@
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
@@ -18800,7 +18800,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -18828,12 +18828,12 @@
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>06/02/2023</t>
+          <t>10/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -20735,7 +20735,7 @@
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Enel Distribución Chile S.A.</t>
+          <t>Sociedad Transmisora Metropolitana II S.A.</t>
         </is>
       </c>
       <c r="F425" t="n">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Los Portones de San Luis</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4754,16 +4754,16 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1200</v>
+        <v>17890</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -4772,12 +4772,12 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4802,16 +4802,16 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>9200</v>
+        <v>1200</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4850,16 +4850,16 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>9200</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Los Portones de San Luis</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4898,16 +4898,16 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Inmobiliaria PY S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>17890</v>
+        <v>0</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4916,12 +4916,12 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -6103,7 +6103,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Enel Distribución Chile S.A.</t>
+          <t>Sociedad Transmisora Metropolitana II S.A.</t>
         </is>
       </c>
       <c r="F120" t="n">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6535,11 +6535,11 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SOCIEDAD DISEPLA LTDA.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>800</v>
+        <v>986</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -6548,12 +6548,12 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,11 +6583,11 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>SOCIEDAD DISEPLA LTDA.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>986</v>
+        <v>800</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -6596,12 +6596,12 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Ampliación de Capacidad para Almacenamiento de Cal Viva</t>
+          <t>Planta de Tratamiento de Agua Potable Chamisero</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7351,11 +7351,11 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Calidra Chile Importaciones Minerales SpA</t>
+          <t>Aguas Manquehue S.A.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>120</v>
+        <v>4335</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6130704&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089108&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Agua Potable Chamisero</t>
+          <t>Ampliación de Capacidad para Almacenamiento de Cal Viva</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7399,11 +7399,11 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Aguas Manquehue S.A.</t>
+          <t>Calidra Chile Importaciones Minerales SpA</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>4335</v>
+        <v>120</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089108&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6130704&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10231,7 +10231,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F206" t="n">
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10279,7 +10279,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F207" t="n">
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10327,11 +10327,11 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10375,11 +10375,11 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -10388,12 +10388,12 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
+          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10855,11 +10855,11 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Plasticos Montesa Ltda.</t>
+          <t>Anglo American Sur S.A.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>1196</v>
+        <v>2000</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10868,12 +10868,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
+          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,11 +10903,11 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Anglo American Sur S.A.</t>
+          <t>Plasticos Montesa Ltda.</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>2000</v>
+        <v>1196</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10916,12 +10916,12 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -13096,7 +13096,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13106,16 +13106,16 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F266" t="n">
-        <v>80</v>
+        <v>1700</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13124,12 +13124,12 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13144,7 +13144,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13154,16 +13154,16 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>1700</v>
+        <v>80</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13172,12 +13172,12 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -16256,7 +16256,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
+          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16271,11 +16271,11 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
+          <t>Compañía de Inversiones Mobiliarias Limitada</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>820</v>
+        <v>850</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16284,12 +16284,12 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -16304,7 +16304,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
+          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16319,11 +16319,11 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Compañía de Inversiones Mobiliarias Limitada</t>
+          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>850</v>
+        <v>820</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16332,12 +16332,12 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -18752,7 +18752,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -18780,12 +18780,12 @@
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
@@ -18800,7 +18800,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -18828,12 +18828,12 @@
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
@@ -22079,7 +22079,7 @@
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>Enel Distribución Chile S.A.</t>
+          <t>Sociedad Transmisora Metropolitana II S.A.</t>
         </is>
       </c>
       <c r="F453" t="n">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Los Portones de San Luis</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4850,16 +4850,16 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1200</v>
+        <v>17890</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4868,12 +4868,12 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4898,16 +4898,16 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>9200</v>
+        <v>1200</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,16 +4946,16 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>9200</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Los Portones de San Luis</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,16 +4994,16 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Inmobiliaria PY S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>17890</v>
+        <v>0</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5012,12 +5012,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,11 +6631,11 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SOCIEDAD DISEPLA LTDA.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>800</v>
+        <v>986</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -6644,12 +6644,12 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,11 +6679,11 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>SOCIEDAD DISEPLA LTDA.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>986</v>
+        <v>800</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Ampliación de Capacidad para Almacenamiento de Cal Viva</t>
+          <t>Planta de Tratamiento de Agua Potable Chamisero</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7447,11 +7447,11 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Calidra Chile Importaciones Minerales SpA</t>
+          <t>Aguas Manquehue S.A.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>120</v>
+        <v>4335</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6130704&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089108&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Agua Potable Chamisero</t>
+          <t>Ampliación de Capacidad para Almacenamiento de Cal Viva</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7495,11 +7495,11 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Aguas Manquehue S.A.</t>
+          <t>Calidra Chile Importaciones Minerales SpA</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>4335</v>
+        <v>120</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089108&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6130704&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10327,7 +10327,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F208" t="n">
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10375,7 +10375,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F209" t="n">
@@ -10388,12 +10388,12 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10423,11 +10423,11 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10436,12 +10436,12 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10471,11 +10471,11 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10484,12 +10484,12 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
+          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10951,11 +10951,11 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Plasticos Montesa Ltda.</t>
+          <t>Anglo American Sur S.A.</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>1196</v>
+        <v>2000</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10964,12 +10964,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
+          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,11 +10999,11 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Anglo American Sur S.A.</t>
+          <t>Plasticos Montesa Ltda.</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>2000</v>
+        <v>1196</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11012,12 +11012,12 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -13192,7 +13192,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13202,16 +13202,16 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>80</v>
+        <v>1700</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13220,12 +13220,12 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -13240,7 +13240,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13250,16 +13250,16 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>1700</v>
+        <v>80</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13268,12 +13268,12 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -16352,7 +16352,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
+          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16367,11 +16367,11 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
+          <t>Compañía de Inversiones Mobiliarias Limitada</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>820</v>
+        <v>850</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16380,12 +16380,12 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -16400,7 +16400,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
+          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16415,11 +16415,11 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Compañía de Inversiones Mobiliarias Limitada</t>
+          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>850</v>
+        <v>820</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16428,12 +16428,12 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -18848,7 +18848,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -18876,12 +18876,12 @@
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
@@ -18896,7 +18896,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -18924,12 +18924,12 @@
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Los Portones de San Luis</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4850,16 +4850,16 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Inmobiliaria PY S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>17890</v>
+        <v>1200</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4868,12 +4868,12 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4898,16 +4898,16 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1200</v>
+        <v>9200</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,16 +4946,16 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>9200</v>
+        <v>0</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Los Portones de San Luis</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,16 +4994,16 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>17890</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5012,12 +5012,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,11 +6631,11 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>SOCIEDAD DISEPLA LTDA.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>986</v>
+        <v>800</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -6644,12 +6644,12 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,11 +6679,11 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SOCIEDAD DISEPLA LTDA.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>800</v>
+        <v>986</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Agua Potable Chamisero</t>
+          <t>Ampliación de Capacidad para Almacenamiento de Cal Viva</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7447,11 +7447,11 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Aguas Manquehue S.A.</t>
+          <t>Calidra Chile Importaciones Minerales SpA</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>4335</v>
+        <v>120</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089108&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6130704&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Ampliación de Capacidad para Almacenamiento de Cal Viva</t>
+          <t>Planta de Tratamiento de Agua Potable Chamisero</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7495,11 +7495,11 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Calidra Chile Importaciones Minerales SpA</t>
+          <t>Aguas Manquehue S.A.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>120</v>
+        <v>4335</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6130704&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089108&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10327,7 +10327,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F208" t="n">
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10375,7 +10375,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F209" t="n">
@@ -10388,12 +10388,12 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10423,11 +10423,11 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10436,12 +10436,12 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10471,11 +10471,11 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10484,12 +10484,12 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
+          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10951,11 +10951,11 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Anglo American Sur S.A.</t>
+          <t>Plasticos Montesa Ltda.</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>2000</v>
+        <v>1196</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10964,12 +10964,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
+          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,11 +10999,11 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Plasticos Montesa Ltda.</t>
+          <t>Anglo American Sur S.A.</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>1196</v>
+        <v>2000</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11012,12 +11012,12 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -13192,7 +13192,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13202,16 +13202,16 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>1700</v>
+        <v>80</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13220,12 +13220,12 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -13240,7 +13240,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13250,16 +13250,16 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>80</v>
+        <v>1700</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13268,12 +13268,12 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -16352,7 +16352,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
+          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16367,11 +16367,11 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Compañía de Inversiones Mobiliarias Limitada</t>
+          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>850</v>
+        <v>820</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16380,12 +16380,12 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -16400,7 +16400,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
+          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16415,11 +16415,11 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
+          <t>Compañía de Inversiones Mobiliarias Limitada</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>820</v>
+        <v>850</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16428,12 +16428,12 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -18848,7 +18848,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -18876,12 +18876,12 @@
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
@@ -18896,7 +18896,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -18924,12 +18924,12 @@
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20/04/2023</t>
+          <t>26/04/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Los Portones de San Luis</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4850,16 +4850,16 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1200</v>
+        <v>17890</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4868,12 +4868,12 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4898,16 +4898,16 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>9200</v>
+        <v>1200</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,16 +4946,16 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>9200</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Los Portones de San Luis</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,16 +4994,16 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Inmobiliaria PY S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>17890</v>
+        <v>0</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5012,12 +5012,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,11 +6631,11 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SOCIEDAD DISEPLA LTDA.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>800</v>
+        <v>986</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -6644,12 +6644,12 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,11 +6679,11 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>SOCIEDAD DISEPLA LTDA.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>986</v>
+        <v>800</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10327,7 +10327,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F208" t="n">
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10375,7 +10375,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F209" t="n">
@@ -10388,12 +10388,12 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10423,11 +10423,11 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10436,12 +10436,12 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10471,11 +10471,11 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10484,12 +10484,12 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
+          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10951,11 +10951,11 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Plasticos Montesa Ltda.</t>
+          <t>Anglo American Sur S.A.</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>1196</v>
+        <v>2000</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10964,12 +10964,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
+          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,11 +10999,11 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Anglo American Sur S.A.</t>
+          <t>Plasticos Montesa Ltda.</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>2000</v>
+        <v>1196</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11012,12 +11012,12 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -13192,7 +13192,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13202,16 +13202,16 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>80</v>
+        <v>1700</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13220,12 +13220,12 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -13240,7 +13240,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13250,16 +13250,16 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>1700</v>
+        <v>80</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13268,12 +13268,12 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -16352,7 +16352,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
+          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16367,11 +16367,11 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
+          <t>Compañía de Inversiones Mobiliarias Limitada</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>820</v>
+        <v>850</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16380,12 +16380,12 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -16400,7 +16400,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
+          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16415,11 +16415,11 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Compañía de Inversiones Mobiliarias Limitada</t>
+          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>850</v>
+        <v>820</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16428,12 +16428,12 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -18848,7 +18848,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -18876,12 +18876,12 @@
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
@@ -18896,7 +18896,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -18924,12 +18924,12 @@
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Los Portones de San Luis</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4850,16 +4850,16 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Inmobiliaria PY S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>17890</v>
+        <v>1200</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4868,12 +4868,12 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4898,16 +4898,16 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1200</v>
+        <v>9200</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,16 +4946,16 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>9200</v>
+        <v>0</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Los Portones de San Luis</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,16 +4994,16 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>17890</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5012,12 +5012,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,11 +6631,11 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>SOCIEDAD DISEPLA LTDA.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>986</v>
+        <v>800</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -6644,12 +6644,12 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,11 +6679,11 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SOCIEDAD DISEPLA LTDA.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>800</v>
+        <v>986</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10327,7 +10327,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F208" t="n">
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10375,7 +10375,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F209" t="n">
@@ -10388,12 +10388,12 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10423,11 +10423,11 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10436,12 +10436,12 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10471,11 +10471,11 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10484,12 +10484,12 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
+          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10951,11 +10951,11 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Anglo American Sur S.A.</t>
+          <t>Plasticos Montesa Ltda.</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>2000</v>
+        <v>1196</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10964,12 +10964,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
+          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,11 +10999,11 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Plasticos Montesa Ltda.</t>
+          <t>Anglo American Sur S.A.</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>1196</v>
+        <v>2000</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11012,12 +11012,12 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -13192,7 +13192,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13202,16 +13202,16 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>1700</v>
+        <v>80</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13220,12 +13220,12 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -13240,7 +13240,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13250,16 +13250,16 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>80</v>
+        <v>1700</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13268,12 +13268,12 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -16352,7 +16352,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
+          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16367,11 +16367,11 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Compañía de Inversiones Mobiliarias Limitada</t>
+          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>850</v>
+        <v>820</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16380,12 +16380,12 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -16400,7 +16400,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
+          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16415,11 +16415,11 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
+          <t>Compañía de Inversiones Mobiliarias Limitada</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>820</v>
+        <v>850</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16428,12 +16428,12 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -18848,7 +18848,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -18876,12 +18876,12 @@
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
@@ -18896,7 +18896,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -18924,12 +18924,12 @@
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Los Portones de San Luis</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4850,16 +4850,16 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1200</v>
+        <v>17890</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4868,12 +4868,12 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4898,16 +4898,16 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>9200</v>
+        <v>1200</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,16 +4946,16 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>9200</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Los Portones de San Luis</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,16 +4994,16 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Inmobiliaria PY S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>17890</v>
+        <v>0</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5012,12 +5012,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,11 +6631,11 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SOCIEDAD DISEPLA LTDA.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>800</v>
+        <v>986</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -6644,12 +6644,12 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,11 +6679,11 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>SOCIEDAD DISEPLA LTDA.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>986</v>
+        <v>800</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Ampliación de Capacidad para Almacenamiento de Cal Viva</t>
+          <t>Planta de Tratamiento de Agua Potable Chamisero</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7447,11 +7447,11 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Calidra Chile Importaciones Minerales SpA</t>
+          <t>Aguas Manquehue S.A.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>120</v>
+        <v>4335</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6130704&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089108&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Agua Potable Chamisero</t>
+          <t>Ampliación de Capacidad para Almacenamiento de Cal Viva</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7495,11 +7495,11 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Aguas Manquehue S.A.</t>
+          <t>Calidra Chile Importaciones Minerales SpA</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>4335</v>
+        <v>120</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089108&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6130704&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10327,7 +10327,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F208" t="n">
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10375,7 +10375,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F209" t="n">
@@ -10388,12 +10388,12 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10423,11 +10423,11 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10436,12 +10436,12 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10471,11 +10471,11 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10484,12 +10484,12 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
+          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10951,11 +10951,11 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Plasticos Montesa Ltda.</t>
+          <t>Anglo American Sur S.A.</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>1196</v>
+        <v>2000</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10964,12 +10964,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
+          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,11 +10999,11 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Anglo American Sur S.A.</t>
+          <t>Plasticos Montesa Ltda.</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>2000</v>
+        <v>1196</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11012,12 +11012,12 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -13192,7 +13192,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13202,16 +13202,16 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>80</v>
+        <v>1700</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13220,12 +13220,12 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -13240,7 +13240,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13250,16 +13250,16 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>1700</v>
+        <v>80</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13268,12 +13268,12 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -16352,7 +16352,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
+          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16367,11 +16367,11 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
+          <t>Compañía de Inversiones Mobiliarias Limitada</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>820</v>
+        <v>850</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16380,12 +16380,12 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -16400,7 +16400,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
+          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16415,11 +16415,11 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Compañía de Inversiones Mobiliarias Limitada</t>
+          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>850</v>
+        <v>820</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16428,12 +16428,12 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -18848,7 +18848,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -18876,12 +18876,12 @@
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
@@ -18896,7 +18896,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -18924,12 +18924,12 @@
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Los Portones de San Luis</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4898,16 +4898,16 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1200</v>
+        <v>17890</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4916,12 +4916,12 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,16 +4946,16 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>9200</v>
+        <v>1200</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,16 +4994,16 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>9200</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Los Portones de San Luis</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5042,16 +5042,16 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Inmobiliaria PY S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>17890</v>
+        <v>0</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5060,12 +5060,12 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,11 +6679,11 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SOCIEDAD DISEPLA LTDA.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>800</v>
+        <v>986</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,11 +6727,11 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>SOCIEDAD DISEPLA LTDA.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>986</v>
+        <v>800</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6740,12 +6740,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Ampliación de Capacidad para Almacenamiento de Cal Viva</t>
+          <t>Planta de Tratamiento de Agua Potable Chamisero</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7495,11 +7495,11 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Calidra Chile Importaciones Minerales SpA</t>
+          <t>Aguas Manquehue S.A.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>120</v>
+        <v>4335</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6130704&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089108&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Agua Potable Chamisero</t>
+          <t>Ampliación de Capacidad para Almacenamiento de Cal Viva</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7543,11 +7543,11 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Aguas Manquehue S.A.</t>
+          <t>Calidra Chile Importaciones Minerales SpA</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>4335</v>
+        <v>120</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089108&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6130704&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10375,7 +10375,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F209" t="n">
@@ -10388,12 +10388,12 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10423,7 +10423,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F210" t="n">
@@ -10436,12 +10436,12 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10471,11 +10471,11 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10484,12 +10484,12 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10519,11 +10519,11 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -10532,12 +10532,12 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
+          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,11 +10999,11 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Plasticos Montesa Ltda.</t>
+          <t>Anglo American Sur S.A.</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>1196</v>
+        <v>2000</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11012,12 +11012,12 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
+          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11047,11 +11047,11 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Anglo American Sur S.A.</t>
+          <t>Plasticos Montesa Ltda.</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>2000</v>
+        <v>1196</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11060,12 +11060,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -13240,7 +13240,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13250,16 +13250,16 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>80</v>
+        <v>1700</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13268,12 +13268,12 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -13288,7 +13288,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -13298,16 +13298,16 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>1700</v>
+        <v>80</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13316,12 +13316,12 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -16400,7 +16400,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
+          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16415,11 +16415,11 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
+          <t>Compañía de Inversiones Mobiliarias Limitada</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>820</v>
+        <v>850</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16428,12 +16428,12 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -16448,7 +16448,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
+          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -16463,11 +16463,11 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>Compañía de Inversiones Mobiliarias Limitada</t>
+          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
         </is>
       </c>
       <c r="F336" t="n">
-        <v>850</v>
+        <v>820</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -16476,12 +16476,12 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
@@ -18896,7 +18896,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -18924,12 +18924,12 @@
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
@@ -18944,7 +18944,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -18972,12 +18972,12 @@
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Los Portones de San Luis</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4898,16 +4898,16 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Inmobiliaria PY S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>17890</v>
+        <v>1200</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4916,12 +4916,12 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,16 +4946,16 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1200</v>
+        <v>9200</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,16 +4994,16 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>9200</v>
+        <v>0</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Los Portones de San Luis</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5042,16 +5042,16 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>17890</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5060,12 +5060,12 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,11 +6679,11 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>SOCIEDAD DISEPLA LTDA.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>986</v>
+        <v>800</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,11 +6727,11 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SOCIEDAD DISEPLA LTDA.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>800</v>
+        <v>986</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6740,12 +6740,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Agua Potable Chamisero</t>
+          <t>Ampliación de Capacidad para Almacenamiento de Cal Viva</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7495,11 +7495,11 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Aguas Manquehue S.A.</t>
+          <t>Calidra Chile Importaciones Minerales SpA</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>4335</v>
+        <v>120</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089108&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6130704&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Ampliación de Capacidad para Almacenamiento de Cal Viva</t>
+          <t>Planta de Tratamiento de Agua Potable Chamisero</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7543,11 +7543,11 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Calidra Chile Importaciones Minerales SpA</t>
+          <t>Aguas Manquehue S.A.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>120</v>
+        <v>4335</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6130704&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089108&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10375,7 +10375,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F209" t="n">
@@ -10388,12 +10388,12 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10423,7 +10423,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F210" t="n">
@@ -10436,12 +10436,12 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10471,11 +10471,11 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10484,12 +10484,12 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10519,11 +10519,11 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -10532,12 +10532,12 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
+          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,11 +10999,11 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Anglo American Sur S.A.</t>
+          <t>Plasticos Montesa Ltda.</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>2000</v>
+        <v>1196</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11012,12 +11012,12 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
+          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11047,11 +11047,11 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Plasticos Montesa Ltda.</t>
+          <t>Anglo American Sur S.A.</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>1196</v>
+        <v>2000</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11060,12 +11060,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -13240,7 +13240,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13250,16 +13250,16 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>1700</v>
+        <v>80</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13268,12 +13268,12 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -13288,7 +13288,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -13298,16 +13298,16 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>80</v>
+        <v>1700</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13316,12 +13316,12 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -16400,7 +16400,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
+          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16415,11 +16415,11 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Compañía de Inversiones Mobiliarias Limitada</t>
+          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>850</v>
+        <v>820</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16428,12 +16428,12 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -16448,7 +16448,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
+          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -16463,11 +16463,11 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
+          <t>Compañía de Inversiones Mobiliarias Limitada</t>
         </is>
       </c>
       <c r="F336" t="n">
-        <v>820</v>
+        <v>850</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -16476,12 +16476,12 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
@@ -18896,7 +18896,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -18924,12 +18924,12 @@
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
@@ -18944,7 +18944,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -18972,12 +18972,12 @@
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>14/06/2023</t>
+          <t>18/07/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/07/2023</t>
+          <t>22/06/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Los Portones de San Luis</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4898,16 +4898,16 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1200</v>
+        <v>17890</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4916,12 +4916,12 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,16 +4946,16 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>9200</v>
+        <v>1200</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,16 +4994,16 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>9200</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Los Portones de San Luis</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5042,16 +5042,16 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Inmobiliaria PY S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>17890</v>
+        <v>0</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5060,12 +5060,12 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,11 +6679,11 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SOCIEDAD DISEPLA LTDA.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>800</v>
+        <v>986</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,11 +6727,11 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>SOCIEDAD DISEPLA LTDA.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>986</v>
+        <v>800</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6740,12 +6740,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10375,7 +10375,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F209" t="n">
@@ -10388,12 +10388,12 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10423,7 +10423,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F210" t="n">
@@ -10436,12 +10436,12 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10471,11 +10471,11 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10484,12 +10484,12 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10519,11 +10519,11 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -10532,12 +10532,12 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
+          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,11 +10999,11 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Plasticos Montesa Ltda.</t>
+          <t>Anglo American Sur S.A.</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>1196</v>
+        <v>2000</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11012,12 +11012,12 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
+          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11047,11 +11047,11 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Anglo American Sur S.A.</t>
+          <t>Plasticos Montesa Ltda.</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>2000</v>
+        <v>1196</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11060,12 +11060,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -13240,7 +13240,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13250,16 +13250,16 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>80</v>
+        <v>1700</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13268,12 +13268,12 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -13288,7 +13288,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -13298,16 +13298,16 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>1700</v>
+        <v>80</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13316,12 +13316,12 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -16400,7 +16400,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
+          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16415,11 +16415,11 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
+          <t>Compañía de Inversiones Mobiliarias Limitada</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>820</v>
+        <v>850</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16428,12 +16428,12 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -16448,7 +16448,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
+          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -16463,11 +16463,11 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>Compañía de Inversiones Mobiliarias Limitada</t>
+          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
         </is>
       </c>
       <c r="F336" t="n">
-        <v>850</v>
+        <v>820</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -16476,12 +16476,12 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
@@ -18896,7 +18896,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -18924,12 +18924,12 @@
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
@@ -18944,7 +18944,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -18972,12 +18972,12 @@
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Los Portones de San Luis</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4898,16 +4898,16 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Inmobiliaria PY S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>17890</v>
+        <v>1200</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4916,12 +4916,12 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,16 +4946,16 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1200</v>
+        <v>9200</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,16 +4994,16 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>9200</v>
+        <v>0</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Los Portones de San Luis</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5042,16 +5042,16 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>17890</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5060,12 +5060,12 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,11 +6679,11 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>SOCIEDAD DISEPLA LTDA.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>986</v>
+        <v>800</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,11 +6727,11 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SOCIEDAD DISEPLA LTDA.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>800</v>
+        <v>986</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6740,12 +6740,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10375,7 +10375,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F209" t="n">
@@ -10388,12 +10388,12 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10423,7 +10423,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F210" t="n">
@@ -10436,12 +10436,12 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10471,11 +10471,11 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10484,12 +10484,12 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10519,11 +10519,11 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -10532,12 +10532,12 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
+          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,11 +10999,11 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Anglo American Sur S.A.</t>
+          <t>Plasticos Montesa Ltda.</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>2000</v>
+        <v>1196</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11012,12 +11012,12 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
+          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11047,11 +11047,11 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Plasticos Montesa Ltda.</t>
+          <t>Anglo American Sur S.A.</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>1196</v>
+        <v>2000</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11060,12 +11060,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -13240,7 +13240,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13250,16 +13250,16 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>1700</v>
+        <v>80</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13268,12 +13268,12 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -13288,7 +13288,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -13298,16 +13298,16 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>80</v>
+        <v>1700</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13316,12 +13316,12 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -16400,7 +16400,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
+          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16415,11 +16415,11 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Compañía de Inversiones Mobiliarias Limitada</t>
+          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>850</v>
+        <v>820</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16428,12 +16428,12 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -16448,7 +16448,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
+          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -16463,11 +16463,11 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
+          <t>Compañía de Inversiones Mobiliarias Limitada</t>
         </is>
       </c>
       <c r="F336" t="n">
-        <v>820</v>
+        <v>850</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -16476,12 +16476,12 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
@@ -18896,7 +18896,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -18924,12 +18924,12 @@
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
@@ -18944,7 +18944,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -18972,12 +18972,12 @@
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Los Portones de San Luis</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,16 +4946,16 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Inmobiliaria PY S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>17890</v>
+        <v>1200</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4964,12 +4964,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,16 +4994,16 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1200</v>
+        <v>9200</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5042,16 +5042,16 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>9200</v>
+        <v>0</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Los Portones de San Luis</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5090,16 +5090,16 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>17890</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5108,12 +5108,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,11 +6727,11 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>SOCIEDAD DISEPLA LTDA.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>986</v>
+        <v>800</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6740,12 +6740,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,11 +6775,11 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SOCIEDAD DISEPLA LTDA.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>800</v>
+        <v>986</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10423,7 +10423,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F210" t="n">
@@ -10436,12 +10436,12 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10471,7 +10471,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F211" t="n">
@@ -10484,12 +10484,12 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10519,11 +10519,11 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -10532,12 +10532,12 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10567,11 +10567,11 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
@@ -10580,12 +10580,12 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
+          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11047,11 +11047,11 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Anglo American Sur S.A.</t>
+          <t>Plasticos Montesa Ltda.</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>2000</v>
+        <v>1196</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11060,12 +11060,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
+          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11095,11 +11095,11 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Plasticos Montesa Ltda.</t>
+          <t>Anglo American Sur S.A.</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>1196</v>
+        <v>2000</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11108,12 +11108,12 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -13288,7 +13288,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -13298,16 +13298,16 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>1700</v>
+        <v>80</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13316,12 +13316,12 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -13336,7 +13336,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -13346,16 +13346,16 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>80</v>
+        <v>1700</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -13364,12 +13364,12 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
@@ -16448,7 +16448,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
+          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -16463,11 +16463,11 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>Compañía de Inversiones Mobiliarias Limitada</t>
+          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
         </is>
       </c>
       <c r="F336" t="n">
-        <v>850</v>
+        <v>820</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -16476,12 +16476,12 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
@@ -16496,7 +16496,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
+          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -16511,11 +16511,11 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
+          <t>Compañía de Inversiones Mobiliarias Limitada</t>
         </is>
       </c>
       <c r="F337" t="n">
-        <v>820</v>
+        <v>850</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -16524,12 +16524,12 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
@@ -18944,7 +18944,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -18972,12 +18972,12 @@
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
@@ -18992,7 +18992,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -19020,12 +19020,12 @@
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Los Portones de San Luis</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,16 +4946,16 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1200</v>
+        <v>17890</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4964,12 +4964,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,16 +4994,16 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>9200</v>
+        <v>1200</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5042,16 +5042,16 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>9200</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Los Portones de San Luis</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5090,16 +5090,16 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Inmobiliaria PY S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>17890</v>
+        <v>0</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5108,12 +5108,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,11 +6727,11 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SOCIEDAD DISEPLA LTDA.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>800</v>
+        <v>986</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6740,12 +6740,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,11 +6775,11 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>SOCIEDAD DISEPLA LTDA.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>986</v>
+        <v>800</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10423,7 +10423,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F210" t="n">
@@ -10436,12 +10436,12 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10471,7 +10471,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F211" t="n">
@@ -10484,12 +10484,12 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10519,11 +10519,11 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -10532,12 +10532,12 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10567,11 +10567,11 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
@@ -10580,12 +10580,12 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
+          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11047,11 +11047,11 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Plasticos Montesa Ltda.</t>
+          <t>Anglo American Sur S.A.</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>1196</v>
+        <v>2000</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11060,12 +11060,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
+          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11095,11 +11095,11 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Anglo American Sur S.A.</t>
+          <t>Plasticos Montesa Ltda.</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>2000</v>
+        <v>1196</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11108,12 +11108,12 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -13288,7 +13288,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -13298,16 +13298,16 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>80</v>
+        <v>1700</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13316,12 +13316,12 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -13336,7 +13336,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -13346,16 +13346,16 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>1700</v>
+        <v>80</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -13364,12 +13364,12 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
@@ -16448,7 +16448,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
+          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -16463,11 +16463,11 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
+          <t>Compañía de Inversiones Mobiliarias Limitada</t>
         </is>
       </c>
       <c r="F336" t="n">
-        <v>820</v>
+        <v>850</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -16476,12 +16476,12 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
@@ -16496,7 +16496,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
+          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -16511,11 +16511,11 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Compañía de Inversiones Mobiliarias Limitada</t>
+          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
         </is>
       </c>
       <c r="F337" t="n">
-        <v>850</v>
+        <v>820</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -16524,12 +16524,12 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
@@ -18944,7 +18944,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -18972,12 +18972,12 @@
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
@@ -18992,7 +18992,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -19020,12 +19020,12 @@
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/07/2023</t>
+          <t>24/07/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Los Portones de San Luis</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,16 +4946,16 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Inmobiliaria PY S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>17890</v>
+        <v>1200</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4964,12 +4964,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,16 +4994,16 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1200</v>
+        <v>9200</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5042,16 +5042,16 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>9200</v>
+        <v>0</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Los Portones de San Luis</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5090,16 +5090,16 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>17890</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5108,12 +5108,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,11 +6727,11 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>SOCIEDAD DISEPLA LTDA.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>986</v>
+        <v>800</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6740,12 +6740,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,11 +6775,11 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SOCIEDAD DISEPLA LTDA.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>800</v>
+        <v>986</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10423,7 +10423,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F210" t="n">
@@ -10436,12 +10436,12 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10471,7 +10471,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F211" t="n">
@@ -10484,12 +10484,12 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10519,11 +10519,11 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -10532,12 +10532,12 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10567,11 +10567,11 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
@@ -10580,12 +10580,12 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
+          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11047,11 +11047,11 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Anglo American Sur S.A.</t>
+          <t>Plasticos Montesa Ltda.</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>2000</v>
+        <v>1196</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11060,12 +11060,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
+          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11095,11 +11095,11 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Plasticos Montesa Ltda.</t>
+          <t>Anglo American Sur S.A.</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>1196</v>
+        <v>2000</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11108,12 +11108,12 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -13288,7 +13288,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -13298,16 +13298,16 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>1700</v>
+        <v>80</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13316,12 +13316,12 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -13336,7 +13336,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -13346,16 +13346,16 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>80</v>
+        <v>1700</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -13364,12 +13364,12 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
@@ -16448,7 +16448,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
+          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -16463,11 +16463,11 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>Compañía de Inversiones Mobiliarias Limitada</t>
+          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
         </is>
       </c>
       <c r="F336" t="n">
-        <v>850</v>
+        <v>820</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -16476,12 +16476,12 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
@@ -16496,7 +16496,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
+          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -16511,11 +16511,11 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
+          <t>Compañía de Inversiones Mobiliarias Limitada</t>
         </is>
       </c>
       <c r="F337" t="n">
-        <v>820</v>
+        <v>850</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -16524,12 +16524,12 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
@@ -18944,7 +18944,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -18972,12 +18972,12 @@
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
@@ -18992,7 +18992,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -19020,12 +19020,12 @@
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Los Portones de San Luis</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,16 +4994,16 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1200</v>
+        <v>17890</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5012,12 +5012,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5042,16 +5042,16 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>9200</v>
+        <v>1200</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5090,16 +5090,16 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>9200</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Los Portones de San Luis</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,16 +5138,16 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Inmobiliaria PY S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>17890</v>
+        <v>0</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5156,12 +5156,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,11 +6775,11 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SOCIEDAD DISEPLA LTDA.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>800</v>
+        <v>986</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,11 +6823,11 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>SOCIEDAD DISEPLA LTDA.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>986</v>
+        <v>800</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10471,7 +10471,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F211" t="n">
@@ -10484,12 +10484,12 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10519,7 +10519,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F212" t="n">
@@ -10532,12 +10532,12 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10567,11 +10567,11 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
@@ -10580,12 +10580,12 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10615,11 +10615,11 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
@@ -10628,12 +10628,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
+          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11095,11 +11095,11 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Plasticos Montesa Ltda.</t>
+          <t>Anglo American Sur S.A.</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>1196</v>
+        <v>2000</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11108,12 +11108,12 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
+          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11143,11 +11143,11 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Anglo American Sur S.A.</t>
+          <t>Plasticos Montesa Ltda.</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>2000</v>
+        <v>1196</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11156,12 +11156,12 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -13336,7 +13336,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -13346,16 +13346,16 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>80</v>
+        <v>1700</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -13364,12 +13364,12 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
@@ -13384,7 +13384,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -13394,16 +13394,16 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F272" t="n">
-        <v>1700</v>
+        <v>80</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -13412,12 +13412,12 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
@@ -16496,7 +16496,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
+          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -16511,11 +16511,11 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
+          <t>Compañía de Inversiones Mobiliarias Limitada</t>
         </is>
       </c>
       <c r="F337" t="n">
-        <v>820</v>
+        <v>850</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -16524,12 +16524,12 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
@@ -16544,7 +16544,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
+          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -16559,11 +16559,11 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Compañía de Inversiones Mobiliarias Limitada</t>
+          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
         </is>
       </c>
       <c r="F338" t="n">
-        <v>850</v>
+        <v>820</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16572,12 +16572,12 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
@@ -18992,7 +18992,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -19020,12 +19020,12 @@
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
@@ -19040,7 +19040,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -19068,12 +19068,12 @@
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Los Portones de San Luis</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,16 +4994,16 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Inmobiliaria PY S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>17890</v>
+        <v>1200</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5012,12 +5012,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5042,16 +5042,16 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1200</v>
+        <v>9200</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5090,16 +5090,16 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>9200</v>
+        <v>0</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Los Portones de San Luis</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,16 +5138,16 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>17890</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5156,12 +5156,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,11 +6775,11 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>SOCIEDAD DISEPLA LTDA.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>986</v>
+        <v>800</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,11 +6823,11 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SOCIEDAD DISEPLA LTDA.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>800</v>
+        <v>986</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10471,7 +10471,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F211" t="n">
@@ -10484,12 +10484,12 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10519,7 +10519,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F212" t="n">
@@ -10532,12 +10532,12 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10567,11 +10567,11 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
@@ -10580,12 +10580,12 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10615,11 +10615,11 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
@@ -10628,12 +10628,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
+          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11095,11 +11095,11 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Anglo American Sur S.A.</t>
+          <t>Plasticos Montesa Ltda.</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>2000</v>
+        <v>1196</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11108,12 +11108,12 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
+          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11143,11 +11143,11 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Plasticos Montesa Ltda.</t>
+          <t>Anglo American Sur S.A.</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>1196</v>
+        <v>2000</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11156,12 +11156,12 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -13336,7 +13336,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -13346,16 +13346,16 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>1700</v>
+        <v>80</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -13364,12 +13364,12 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
@@ -13384,7 +13384,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -13394,16 +13394,16 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F272" t="n">
-        <v>80</v>
+        <v>1700</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -13412,12 +13412,12 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
@@ -16496,7 +16496,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
+          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -16511,11 +16511,11 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Compañía de Inversiones Mobiliarias Limitada</t>
+          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
         </is>
       </c>
       <c r="F337" t="n">
-        <v>850</v>
+        <v>820</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -16524,12 +16524,12 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
@@ -16544,7 +16544,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
+          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -16559,11 +16559,11 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
+          <t>Compañía de Inversiones Mobiliarias Limitada</t>
         </is>
       </c>
       <c r="F338" t="n">
-        <v>820</v>
+        <v>850</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16572,12 +16572,12 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
@@ -18992,7 +18992,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -19020,12 +19020,12 @@
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
@@ -19040,7 +19040,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -19068,12 +19068,12 @@
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>27/07/2023</t>
+          <t>03/08/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Los Portones de San Luis</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5090,16 +5090,16 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Inmobiliaria PY S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>17890</v>
+        <v>1200</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5108,12 +5108,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,16 +5138,16 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1200</v>
+        <v>9200</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,16 +5186,16 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>9200</v>
+        <v>0</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Los Portones de San Luis</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,16 +5234,16 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>17890</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5252,12 +5252,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6871,11 +6871,11 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>SOCIEDAD DISEPLA LTDA.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>986</v>
+        <v>800</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6884,12 +6884,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,11 +6919,11 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SOCIEDAD DISEPLA LTDA.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>800</v>
+        <v>986</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10567,7 +10567,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F213" t="n">
@@ -10580,12 +10580,12 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10615,7 +10615,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F214" t="n">
@@ -10628,12 +10628,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10663,11 +10663,11 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -10676,12 +10676,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10711,11 +10711,11 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
+          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11191,11 +11191,11 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Anglo American Sur S.A.</t>
+          <t>Plasticos Montesa Ltda.</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>2000</v>
+        <v>1196</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11204,12 +11204,12 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
+          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11239,11 +11239,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Plasticos Montesa Ltda.</t>
+          <t>Anglo American Sur S.A.</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>1196</v>
+        <v>2000</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11252,12 +11252,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -13432,7 +13432,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -13442,16 +13442,16 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F273" t="n">
-        <v>1700</v>
+        <v>80</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
@@ -13460,12 +13460,12 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
@@ -13480,7 +13480,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -13490,16 +13490,16 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F274" t="n">
-        <v>80</v>
+        <v>1700</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
@@ -13508,12 +13508,12 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
@@ -16592,7 +16592,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
+          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16607,11 +16607,11 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Compañía de Inversiones Mobiliarias Limitada</t>
+          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>850</v>
+        <v>820</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16620,12 +16620,12 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16640,7 +16640,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
+          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16655,11 +16655,11 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
+          <t>Compañía de Inversiones Mobiliarias Limitada</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>820</v>
+        <v>850</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16668,12 +16668,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -19088,7 +19088,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -19116,12 +19116,12 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
@@ -19136,7 +19136,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -19164,12 +19164,12 @@
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
@@ -22736,7 +22736,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Instalación Planta de Tratamiento de Aguas Servidas</t>
+          <t>Planta de Tratamiento de Aguas Servidas. Condominio las Brisas de Chicureo</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22755,7 +22755,7 @@
         </is>
       </c>
       <c r="F467" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G467" t="inlineStr">
         <is>
@@ -22769,7 +22769,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2578&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=112&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -22784,7 +22784,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas. Condominio las Brisas de Chicureo</t>
+          <t>Instalación Planta de Tratamiento de Aguas Servidas</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22803,7 +22803,7 @@
         </is>
       </c>
       <c r="F468" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G468" t="inlineStr">
         <is>
@@ -22817,7 +22817,7 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=112&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2578&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Los Portones de San Luis</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5090,16 +5090,16 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1200</v>
+        <v>17890</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5108,12 +5108,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,16 +5138,16 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>9200</v>
+        <v>1200</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,16 +5186,16 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>9200</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Los Portones de San Luis</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,16 +5234,16 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Inmobiliaria PY S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>17890</v>
+        <v>0</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5252,12 +5252,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6871,11 +6871,11 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SOCIEDAD DISEPLA LTDA.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>800</v>
+        <v>986</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6884,12 +6884,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,11 +6919,11 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>SOCIEDAD DISEPLA LTDA.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>986</v>
+        <v>800</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10567,7 +10567,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F213" t="n">
@@ -10580,12 +10580,12 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10615,7 +10615,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F214" t="n">
@@ -10628,12 +10628,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10663,11 +10663,11 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -10676,12 +10676,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10711,11 +10711,11 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
+          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11191,11 +11191,11 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Plasticos Montesa Ltda.</t>
+          <t>Anglo American Sur S.A.</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>1196</v>
+        <v>2000</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11204,12 +11204,12 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
+          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11239,11 +11239,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Anglo American Sur S.A.</t>
+          <t>Plasticos Montesa Ltda.</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>2000</v>
+        <v>1196</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11252,12 +11252,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -13432,7 +13432,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -13442,16 +13442,16 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F273" t="n">
-        <v>80</v>
+        <v>1700</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
@@ -13460,12 +13460,12 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
@@ -13480,7 +13480,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -13490,16 +13490,16 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F274" t="n">
-        <v>1700</v>
+        <v>80</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
@@ -13508,12 +13508,12 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
@@ -16592,7 +16592,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
+          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16607,11 +16607,11 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
+          <t>Compañía de Inversiones Mobiliarias Limitada</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>820</v>
+        <v>850</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16620,12 +16620,12 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16640,7 +16640,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
+          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16655,11 +16655,11 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Compañía de Inversiones Mobiliarias Limitada</t>
+          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>850</v>
+        <v>820</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16668,12 +16668,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -19088,7 +19088,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -19116,12 +19116,12 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
@@ -19136,7 +19136,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -19164,12 +19164,12 @@
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
@@ -22736,7 +22736,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas. Condominio las Brisas de Chicureo</t>
+          <t>Instalación Planta de Tratamiento de Aguas Servidas</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22755,7 +22755,7 @@
         </is>
       </c>
       <c r="F467" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G467" t="inlineStr">
         <is>
@@ -22769,7 +22769,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=112&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2578&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -22784,7 +22784,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Instalación Planta de Tratamiento de Aguas Servidas</t>
+          <t>Planta de Tratamiento de Aguas Servidas. Condominio las Brisas de Chicureo</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22803,7 +22803,7 @@
         </is>
       </c>
       <c r="F468" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G468" t="inlineStr">
         <is>
@@ -22817,7 +22817,7 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2578&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=112&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -7831,7 +7831,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Codelco División Andina</t>
+          <t>Codelco Chile División Andina</t>
         </is>
       </c>
       <c r="F156" t="n">
@@ -18239,7 +18239,7 @@
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Andina</t>
+          <t>Codelco Chile División Andina</t>
         </is>
       </c>
       <c r="F373" t="n">
@@ -20879,7 +20879,7 @@
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>Codelco División Andina</t>
+          <t>Codelco Chile División Andina</t>
         </is>
       </c>
       <c r="F428" t="n">
@@ -23039,7 +23039,7 @@
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>Codelco División Andina</t>
+          <t>Codelco Chile División Andina</t>
         </is>
       </c>
       <c r="F473" t="n">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Arnaud Solar</t>
+          <t>Data Center SCL04</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CVE Proyecto Treinta y Ocho SpA</t>
+          <t>Edgeconnex Chile VII SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>11400</v>
+        <v>40000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/08/2023</t>
+          <t>22/08/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159795348&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159660804&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Data Center SCL04</t>
+          <t>Parque Fotovoltaico Arnaud Solar</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Edgeconnex Chile VII SpA</t>
+          <t>CVE Proyecto Treinta y Ocho SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>40000</v>
+        <v>11400</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>14/08/2023</t>
+          <t>18/08/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159660804&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159795348&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Ampliación de Capacidad para Almacenamiento de Cal Viva</t>
+          <t>Planta de Tratamiento de Agua Potable Chamisero</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7687,11 +7687,11 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Calidra Chile Importaciones Minerales SpA</t>
+          <t>Aguas Manquehue S.A.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>120</v>
+        <v>4335</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6130704&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089108&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Agua Potable Chamisero</t>
+          <t>Ampliación de Capacidad para Almacenamiento de Cal Viva</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7735,11 +7735,11 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Aguas Manquehue S.A.</t>
+          <t>Calidra Chile Importaciones Minerales SpA</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>4335</v>
+        <v>120</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089108&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6130704&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -12616,7 +12616,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Terminal de Buses E.T.P.Local Colina S.A. (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12626,16 +12626,16 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Empresa de Tranporte de Pasajeros Local Colina S.A</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F256" t="n">
-        <v>40</v>
+        <v>1750</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -12644,12 +12644,12 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -12664,7 +12664,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Terminal de Buses E.T.P.Local Colina S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12674,16 +12674,16 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Empresa de Tranporte de Pasajeros Local Colina S.A</t>
         </is>
       </c>
       <c r="F257" t="n">
-        <v>1750</v>
+        <v>40</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -12692,12 +12692,12 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Los Portones de San Luis</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5090,16 +5090,16 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Inmobiliaria PY S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>17890</v>
+        <v>1200</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5108,12 +5108,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,16 +5138,16 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1200</v>
+        <v>9200</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,16 +5186,16 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>9200</v>
+        <v>0</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Los Portones de San Luis</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,16 +5234,16 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>17890</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5252,12 +5252,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6871,11 +6871,11 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>SOCIEDAD DISEPLA LTDA.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>986</v>
+        <v>800</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6884,12 +6884,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,11 +6919,11 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SOCIEDAD DISEPLA LTDA.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>800</v>
+        <v>986</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Agua Potable Chamisero</t>
+          <t>Ampliación de Capacidad para Almacenamiento de Cal Viva</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7687,11 +7687,11 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Aguas Manquehue S.A.</t>
+          <t>Calidra Chile Importaciones Minerales SpA</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>4335</v>
+        <v>120</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089108&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6130704&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Ampliación de Capacidad para Almacenamiento de Cal Viva</t>
+          <t>Planta de Tratamiento de Agua Potable Chamisero</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7735,11 +7735,11 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Calidra Chile Importaciones Minerales SpA</t>
+          <t>Aguas Manquehue S.A.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>120</v>
+        <v>4335</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6130704&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089108&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10567,7 +10567,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F213" t="n">
@@ -10580,12 +10580,12 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10615,7 +10615,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F214" t="n">
@@ -10628,12 +10628,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10663,11 +10663,11 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -10676,12 +10676,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10711,11 +10711,11 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
+          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11191,11 +11191,11 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Anglo American Sur S.A.</t>
+          <t>Plasticos Montesa Ltda.</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>2000</v>
+        <v>1196</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11204,12 +11204,12 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
+          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11239,11 +11239,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Plasticos Montesa Ltda.</t>
+          <t>Anglo American Sur S.A.</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>1196</v>
+        <v>2000</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11252,12 +11252,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -12616,7 +12616,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Terminal de Buses E.T.P.Local Colina S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12626,16 +12626,16 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Empresa de Tranporte de Pasajeros Local Colina S.A</t>
         </is>
       </c>
       <c r="F256" t="n">
-        <v>1750</v>
+        <v>40</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -12644,12 +12644,12 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -12664,7 +12664,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Terminal de Buses E.T.P.Local Colina S.A. (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12674,16 +12674,16 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Empresa de Tranporte de Pasajeros Local Colina S.A</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F257" t="n">
-        <v>40</v>
+        <v>1750</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -12692,12 +12692,12 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -13432,7 +13432,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -13442,16 +13442,16 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F273" t="n">
-        <v>1700</v>
+        <v>80</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
@@ -13460,12 +13460,12 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
@@ -13480,7 +13480,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -13490,16 +13490,16 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F274" t="n">
-        <v>80</v>
+        <v>1700</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
@@ -13508,12 +13508,12 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
@@ -16592,7 +16592,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
+          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16607,11 +16607,11 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Compañía de Inversiones Mobiliarias Limitada</t>
+          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>850</v>
+        <v>820</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16620,12 +16620,12 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16640,7 +16640,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
+          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16655,11 +16655,11 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
+          <t>Compañía de Inversiones Mobiliarias Limitada</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>820</v>
+        <v>850</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16668,12 +16668,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -19088,7 +19088,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -19116,12 +19116,12 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
@@ -19136,7 +19136,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -19164,12 +19164,12 @@
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
@@ -22736,7 +22736,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Instalación Planta de Tratamiento de Aguas Servidas</t>
+          <t>Planta de Tratamiento de Aguas Servidas. Condominio las Brisas de Chicureo</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22755,7 +22755,7 @@
         </is>
       </c>
       <c r="F467" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G467" t="inlineStr">
         <is>
@@ -22769,7 +22769,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2578&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=112&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -22784,7 +22784,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas. Condominio las Brisas de Chicureo</t>
+          <t>Instalación Planta de Tratamiento de Aguas Servidas</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22803,7 +22803,7 @@
         </is>
       </c>
       <c r="F468" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G468" t="inlineStr">
         <is>
@@ -22817,7 +22817,7 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=112&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2578&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Data Center SCL04</t>
+          <t>Parque Fotovoltaico Arnaud Solar</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,15 +439,15 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Edgeconnex Chile VII SpA</t>
+          <t>CVE Proyecto Treinta y Ocho SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>40000</v>
+        <v>11400</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>22/08/2023</t>
+          <t>23/08/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -457,7 +457,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159660804&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159795348&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Arnaud Solar</t>
+          <t>Data Center SCL04</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CVE Proyecto Treinta y Ocho SpA</t>
+          <t>Edgeconnex Chile VII SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>11400</v>
+        <v>40000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>18/08/2023</t>
+          <t>22/08/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159795348&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159660804&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Los Portones de San Luis</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5090,16 +5090,16 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1200</v>
+        <v>17890</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5108,12 +5108,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,16 +5138,16 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>9200</v>
+        <v>1200</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,16 +5186,16 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>9200</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Los Portones de San Luis</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,16 +5234,16 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Inmobiliaria PY S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>17890</v>
+        <v>0</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5252,12 +5252,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6871,11 +6871,11 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SOCIEDAD DISEPLA LTDA.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>800</v>
+        <v>986</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6884,12 +6884,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,11 +6919,11 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>SOCIEDAD DISEPLA LTDA.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>986</v>
+        <v>800</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10567,7 +10567,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F213" t="n">
@@ -10580,12 +10580,12 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10615,7 +10615,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F214" t="n">
@@ -10628,12 +10628,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10663,11 +10663,11 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -10676,12 +10676,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10711,11 +10711,11 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
+          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11191,11 +11191,11 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Plasticos Montesa Ltda.</t>
+          <t>Anglo American Sur S.A.</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>1196</v>
+        <v>2000</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11204,12 +11204,12 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
+          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11239,11 +11239,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Anglo American Sur S.A.</t>
+          <t>Plasticos Montesa Ltda.</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>2000</v>
+        <v>1196</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11252,12 +11252,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -13432,7 +13432,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -13442,16 +13442,16 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F273" t="n">
-        <v>80</v>
+        <v>1700</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
@@ -13460,12 +13460,12 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
@@ -13480,7 +13480,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -13490,16 +13490,16 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F274" t="n">
-        <v>1700</v>
+        <v>80</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
@@ -13508,12 +13508,12 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
@@ -16592,7 +16592,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
+          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16607,11 +16607,11 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
+          <t>Compañía de Inversiones Mobiliarias Limitada</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>820</v>
+        <v>850</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16620,12 +16620,12 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16640,7 +16640,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
+          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16655,11 +16655,11 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Compañía de Inversiones Mobiliarias Limitada</t>
+          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>850</v>
+        <v>820</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16668,12 +16668,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -19088,7 +19088,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -19116,12 +19116,12 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
@@ -19136,7 +19136,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -19164,12 +19164,12 @@
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Los Portones de San Luis</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5090,16 +5090,16 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Inmobiliaria PY S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>17890</v>
+        <v>1200</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5108,12 +5108,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,16 +5138,16 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1200</v>
+        <v>9200</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,16 +5186,16 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>9200</v>
+        <v>0</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Los Portones de San Luis</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,16 +5234,16 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>17890</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5252,12 +5252,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6871,11 +6871,11 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>SOCIEDAD DISEPLA LTDA.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>986</v>
+        <v>800</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6884,12 +6884,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,11 +6919,11 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SOCIEDAD DISEPLA LTDA.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>800</v>
+        <v>986</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10567,7 +10567,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F213" t="n">
@@ -10580,12 +10580,12 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10615,7 +10615,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F214" t="n">
@@ -10628,12 +10628,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10663,11 +10663,11 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -10676,12 +10676,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10711,11 +10711,11 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
+          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11191,11 +11191,11 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Anglo American Sur S.A.</t>
+          <t>Plasticos Montesa Ltda.</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>2000</v>
+        <v>1196</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11204,12 +11204,12 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
+          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11239,11 +11239,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Plasticos Montesa Ltda.</t>
+          <t>Anglo American Sur S.A.</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>1196</v>
+        <v>2000</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11252,12 +11252,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -13432,7 +13432,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -13442,16 +13442,16 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F273" t="n">
-        <v>1700</v>
+        <v>80</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
@@ -13460,12 +13460,12 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
@@ -13480,7 +13480,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -13490,16 +13490,16 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F274" t="n">
-        <v>80</v>
+        <v>1700</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
@@ -13508,12 +13508,12 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
@@ -16592,7 +16592,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
+          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16607,11 +16607,11 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Compañía de Inversiones Mobiliarias Limitada</t>
+          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>850</v>
+        <v>820</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16620,12 +16620,12 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16640,7 +16640,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
+          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16655,11 +16655,11 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
+          <t>Compañía de Inversiones Mobiliarias Limitada</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>820</v>
+        <v>850</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16668,12 +16668,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -19088,7 +19088,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -19116,12 +19116,12 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
@@ -19136,7 +19136,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -19164,12 +19164,12 @@
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -884,7 +884,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Los Portones de San Luis</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5090,16 +5090,16 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1200</v>
+        <v>17890</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5108,12 +5108,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,16 +5138,16 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>9200</v>
+        <v>1200</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,16 +5186,16 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>9200</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Los Portones de San Luis</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,16 +5234,16 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Inmobiliaria PY S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>17890</v>
+        <v>0</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5252,12 +5252,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6871,11 +6871,11 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SOCIEDAD DISEPLA LTDA.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>800</v>
+        <v>986</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6884,12 +6884,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,11 +6919,11 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>SOCIEDAD DISEPLA LTDA.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>986</v>
+        <v>800</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Ampliación de Capacidad para Almacenamiento de Cal Viva</t>
+          <t>Planta de Tratamiento de Agua Potable Chamisero</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7687,11 +7687,11 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Calidra Chile Importaciones Minerales SpA</t>
+          <t>Aguas Manquehue S.A.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>120</v>
+        <v>4335</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6130704&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089108&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Agua Potable Chamisero</t>
+          <t>Ampliación de Capacidad para Almacenamiento de Cal Viva</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7735,11 +7735,11 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Aguas Manquehue S.A.</t>
+          <t>Calidra Chile Importaciones Minerales SpA</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>4335</v>
+        <v>120</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089108&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6130704&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10567,7 +10567,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F213" t="n">
@@ -10580,12 +10580,12 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10615,7 +10615,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F214" t="n">
@@ -10628,12 +10628,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10663,11 +10663,11 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -10676,12 +10676,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10711,11 +10711,11 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
+          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11191,11 +11191,11 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Plasticos Montesa Ltda.</t>
+          <t>Anglo American Sur S.A.</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>1196</v>
+        <v>2000</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11204,12 +11204,12 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
+          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11239,11 +11239,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Anglo American Sur S.A.</t>
+          <t>Plasticos Montesa Ltda.</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>2000</v>
+        <v>1196</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11252,12 +11252,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -13432,7 +13432,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -13442,16 +13442,16 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F273" t="n">
-        <v>80</v>
+        <v>1700</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
@@ -13460,12 +13460,12 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
@@ -13480,7 +13480,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -13490,16 +13490,16 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F274" t="n">
-        <v>1700</v>
+        <v>80</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
@@ -13508,12 +13508,12 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
@@ -16592,7 +16592,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
+          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16607,11 +16607,11 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
+          <t>Compañía de Inversiones Mobiliarias Limitada</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>820</v>
+        <v>850</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16620,12 +16620,12 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16640,7 +16640,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
+          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16655,11 +16655,11 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Compañía de Inversiones Mobiliarias Limitada</t>
+          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>850</v>
+        <v>820</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16668,12 +16668,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -19088,7 +19088,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -19116,12 +19116,12 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
@@ -19136,7 +19136,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -19164,12 +19164,12 @@
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
@@ -22736,7 +22736,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas. Condominio las Brisas de Chicureo</t>
+          <t>Instalación Planta de Tratamiento de Aguas Servidas</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22755,7 +22755,7 @@
         </is>
       </c>
       <c r="F467" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G467" t="inlineStr">
         <is>
@@ -22769,7 +22769,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=112&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2578&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -22784,7 +22784,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Instalación Planta de Tratamiento de Aguas Servidas</t>
+          <t>Planta de Tratamiento de Aguas Servidas. Condominio las Brisas de Chicureo</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22803,7 +22803,7 @@
         </is>
       </c>
       <c r="F468" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G468" t="inlineStr">
         <is>
@@ -22817,7 +22817,7 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2578&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=112&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -596,7 +596,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Los Portones de San Luis</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5090,16 +5090,16 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Inmobiliaria PY S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>17890</v>
+        <v>1200</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5108,12 +5108,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,16 +5138,16 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1200</v>
+        <v>9200</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,16 +5186,16 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>9200</v>
+        <v>0</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Los Portones de San Luis</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,16 +5234,16 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>17890</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5252,12 +5252,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6871,11 +6871,11 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>SOCIEDAD DISEPLA LTDA.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>986</v>
+        <v>800</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6884,12 +6884,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,11 +6919,11 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SOCIEDAD DISEPLA LTDA.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>800</v>
+        <v>986</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Agua Potable Chamisero</t>
+          <t>Ampliación de Capacidad para Almacenamiento de Cal Viva</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7687,11 +7687,11 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Aguas Manquehue S.A.</t>
+          <t>Calidra Chile Importaciones Minerales SpA</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>4335</v>
+        <v>120</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089108&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6130704&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Ampliación de Capacidad para Almacenamiento de Cal Viva</t>
+          <t>Planta de Tratamiento de Agua Potable Chamisero</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7735,11 +7735,11 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Calidra Chile Importaciones Minerales SpA</t>
+          <t>Aguas Manquehue S.A.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>120</v>
+        <v>4335</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6130704&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089108&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10567,7 +10567,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F213" t="n">
@@ -10580,12 +10580,12 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10615,7 +10615,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F214" t="n">
@@ -10628,12 +10628,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10663,11 +10663,11 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -10676,12 +10676,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10711,11 +10711,11 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
+          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11191,11 +11191,11 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Anglo American Sur S.A.</t>
+          <t>Plasticos Montesa Ltda.</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>2000</v>
+        <v>1196</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11204,12 +11204,12 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
+          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11239,11 +11239,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Plasticos Montesa Ltda.</t>
+          <t>Anglo American Sur S.A.</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>1196</v>
+        <v>2000</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11252,12 +11252,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -13432,7 +13432,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -13442,16 +13442,16 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F273" t="n">
-        <v>1700</v>
+        <v>80</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
@@ -13460,12 +13460,12 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
@@ -13480,7 +13480,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -13490,16 +13490,16 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F274" t="n">
-        <v>80</v>
+        <v>1700</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
@@ -13508,12 +13508,12 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
@@ -16592,7 +16592,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
+          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16607,11 +16607,11 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Compañía de Inversiones Mobiliarias Limitada</t>
+          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>850</v>
+        <v>820</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16620,12 +16620,12 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16640,7 +16640,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
+          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16655,11 +16655,11 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
+          <t>Compañía de Inversiones Mobiliarias Limitada</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>820</v>
+        <v>850</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16668,12 +16668,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -19088,7 +19088,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -19116,12 +19116,12 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
@@ -19136,7 +19136,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -19164,12 +19164,12 @@
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
@@ -22736,7 +22736,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Instalación Planta de Tratamiento de Aguas Servidas</t>
+          <t>Planta de Tratamiento de Aguas Servidas. Condominio las Brisas de Chicureo</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22755,7 +22755,7 @@
         </is>
       </c>
       <c r="F467" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G467" t="inlineStr">
         <is>
@@ -22769,7 +22769,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2578&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=112&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -22784,7 +22784,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas. Condominio las Brisas de Chicureo</t>
+          <t>Instalación Planta de Tratamiento de Aguas Servidas</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22803,7 +22803,7 @@
         </is>
       </c>
       <c r="F468" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G468" t="inlineStr">
         <is>
@@ -22817,7 +22817,7 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=112&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2578&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Los Portones de San Luis</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5090,16 +5090,16 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1200</v>
+        <v>17890</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5108,12 +5108,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,16 +5138,16 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>9200</v>
+        <v>1200</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,16 +5186,16 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>9200</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Los Portones de San Luis</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,16 +5234,16 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Inmobiliaria PY S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>17890</v>
+        <v>0</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5252,12 +5252,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6871,11 +6871,11 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SOCIEDAD DISEPLA LTDA.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>800</v>
+        <v>986</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6884,12 +6884,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,11 +6919,11 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>SOCIEDAD DISEPLA LTDA.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>986</v>
+        <v>800</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10567,7 +10567,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F213" t="n">
@@ -10580,12 +10580,12 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10615,7 +10615,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F214" t="n">
@@ -10628,12 +10628,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10663,11 +10663,11 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -10676,12 +10676,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10711,11 +10711,11 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
+          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11191,11 +11191,11 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Plasticos Montesa Ltda.</t>
+          <t>Anglo American Sur S.A.</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>1196</v>
+        <v>2000</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11204,12 +11204,12 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
+          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11239,11 +11239,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Anglo American Sur S.A.</t>
+          <t>Plasticos Montesa Ltda.</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>2000</v>
+        <v>1196</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11252,12 +11252,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -12616,7 +12616,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Terminal de Buses E.T.P.Local Colina S.A. (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12626,16 +12626,16 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Empresa de Tranporte de Pasajeros Local Colina S.A</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F256" t="n">
-        <v>40</v>
+        <v>1750</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -12644,12 +12644,12 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -12664,7 +12664,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Terminal de Buses E.T.P.Local Colina S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12674,16 +12674,16 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Empresa de Tranporte de Pasajeros Local Colina S.A</t>
         </is>
       </c>
       <c r="F257" t="n">
-        <v>1750</v>
+        <v>40</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -12692,12 +12692,12 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -13432,7 +13432,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -13442,16 +13442,16 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F273" t="n">
-        <v>80</v>
+        <v>1700</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
@@ -13460,12 +13460,12 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
@@ -13480,7 +13480,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -13490,16 +13490,16 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F274" t="n">
-        <v>1700</v>
+        <v>80</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
@@ -13508,12 +13508,12 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
@@ -16592,7 +16592,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
+          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16607,11 +16607,11 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
+          <t>Compañía de Inversiones Mobiliarias Limitada</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>820</v>
+        <v>850</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16620,12 +16620,12 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16640,7 +16640,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
+          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16655,11 +16655,11 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Compañía de Inversiones Mobiliarias Limitada</t>
+          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>850</v>
+        <v>820</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16668,12 +16668,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -19088,7 +19088,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -19116,12 +19116,12 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
@@ -19136,7 +19136,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -19164,12 +19164,12 @@
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
@@ -22736,7 +22736,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas. Condominio las Brisas de Chicureo</t>
+          <t>Instalación Planta de Tratamiento de Aguas Servidas</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22755,7 +22755,7 @@
         </is>
       </c>
       <c r="F467" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G467" t="inlineStr">
         <is>
@@ -22769,7 +22769,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=112&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2578&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -22784,7 +22784,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Instalación Planta de Tratamiento de Aguas Servidas</t>
+          <t>Planta de Tratamiento de Aguas Servidas. Condominio las Brisas de Chicureo</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22803,7 +22803,7 @@
         </is>
       </c>
       <c r="F468" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G468" t="inlineStr">
         <is>
@@ -22817,7 +22817,7 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2578&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=112&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Los Portones de San Luis</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5090,16 +5090,16 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Inmobiliaria PY S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>17890</v>
+        <v>1200</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5108,12 +5108,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,16 +5138,16 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1200</v>
+        <v>9200</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,16 +5186,16 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>9200</v>
+        <v>0</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Los Portones de San Luis</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,16 +5234,16 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>17890</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5252,12 +5252,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6871,11 +6871,11 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>SOCIEDAD DISEPLA LTDA.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>986</v>
+        <v>800</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6884,12 +6884,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,11 +6919,11 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SOCIEDAD DISEPLA LTDA.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>800</v>
+        <v>986</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10567,7 +10567,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F213" t="n">
@@ -10580,12 +10580,12 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10615,7 +10615,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F214" t="n">
@@ -10628,12 +10628,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10663,11 +10663,11 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -10676,12 +10676,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10711,11 +10711,11 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
+          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11191,11 +11191,11 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Anglo American Sur S.A.</t>
+          <t>Plasticos Montesa Ltda.</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>2000</v>
+        <v>1196</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11204,12 +11204,12 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
+          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11239,11 +11239,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Plasticos Montesa Ltda.</t>
+          <t>Anglo American Sur S.A.</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>1196</v>
+        <v>2000</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11252,12 +11252,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -12616,7 +12616,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Terminal de Buses E.T.P.Local Colina S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12626,16 +12626,16 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Empresa de Tranporte de Pasajeros Local Colina S.A</t>
         </is>
       </c>
       <c r="F256" t="n">
-        <v>1750</v>
+        <v>40</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -12644,12 +12644,12 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -12664,7 +12664,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Terminal de Buses E.T.P.Local Colina S.A. (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12674,16 +12674,16 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Empresa de Tranporte de Pasajeros Local Colina S.A</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F257" t="n">
-        <v>40</v>
+        <v>1750</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -12692,12 +12692,12 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -13432,7 +13432,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -13442,16 +13442,16 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F273" t="n">
-        <v>1700</v>
+        <v>80</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
@@ -13460,12 +13460,12 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
@@ -13480,7 +13480,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -13490,16 +13490,16 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F274" t="n">
-        <v>80</v>
+        <v>1700</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
@@ -13508,12 +13508,12 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
@@ -16592,7 +16592,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
+          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16607,11 +16607,11 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Compañía de Inversiones Mobiliarias Limitada</t>
+          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>850</v>
+        <v>820</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16620,12 +16620,12 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16640,7 +16640,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
+          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16655,11 +16655,11 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
+          <t>Compañía de Inversiones Mobiliarias Limitada</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>820</v>
+        <v>850</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16668,12 +16668,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -19088,7 +19088,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -19116,12 +19116,12 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
@@ -19136,7 +19136,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -19164,12 +19164,12 @@
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
@@ -22736,7 +22736,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Instalación Planta de Tratamiento de Aguas Servidas</t>
+          <t>Planta de Tratamiento de Aguas Servidas. Condominio las Brisas de Chicureo</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22755,7 +22755,7 @@
         </is>
       </c>
       <c r="F467" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G467" t="inlineStr">
         <is>
@@ -22769,7 +22769,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2578&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=112&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -22784,7 +22784,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas. Condominio las Brisas de Chicureo</t>
+          <t>Instalación Planta de Tratamiento de Aguas Servidas</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22803,7 +22803,7 @@
         </is>
       </c>
       <c r="F468" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G468" t="inlineStr">
         <is>
@@ -22817,7 +22817,7 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=112&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2578&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>PROYECTO PLANTA FOTOVOLTAICA CHICUREO SOLAR</t>
+          <t>Proyecto Planta Fotovoltaica Chicureo Solar</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -1124,7 +1124,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -1556,7 +1556,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Los Portones de San Luis</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5090,16 +5090,16 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Inmobiliaria PY S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>17890</v>
+        <v>1200</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5108,12 +5108,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,16 +5138,16 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1200</v>
+        <v>9200</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,16 +5186,16 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>9200</v>
+        <v>0</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Los Portones de San Luis</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,16 +5234,16 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>17890</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5252,12 +5252,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6871,11 +6871,11 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>SOCIEDAD DISEPLA LTDA.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>986</v>
+        <v>800</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6884,12 +6884,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,11 +6919,11 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SOCIEDAD DISEPLA LTDA.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>800</v>
+        <v>986</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10567,7 +10567,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F213" t="n">
@@ -10580,12 +10580,12 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10615,7 +10615,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F214" t="n">
@@ -10628,12 +10628,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10663,11 +10663,11 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -10676,12 +10676,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10711,11 +10711,11 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
+          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11191,11 +11191,11 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Anglo American Sur S.A.</t>
+          <t>Plasticos Montesa Ltda.</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>2000</v>
+        <v>1196</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11204,12 +11204,12 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
+          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11239,11 +11239,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Plasticos Montesa Ltda.</t>
+          <t>Anglo American Sur S.A.</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>1196</v>
+        <v>2000</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11252,12 +11252,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -13432,7 +13432,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -13442,16 +13442,16 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F273" t="n">
-        <v>1700</v>
+        <v>80</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
@@ -13460,12 +13460,12 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
@@ -13480,7 +13480,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -13490,16 +13490,16 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F274" t="n">
-        <v>80</v>
+        <v>1700</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
@@ -13508,12 +13508,12 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
@@ -16592,7 +16592,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
+          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16607,11 +16607,11 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Compañía de Inversiones Mobiliarias Limitada</t>
+          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>850</v>
+        <v>820</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16620,12 +16620,12 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16640,7 +16640,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
+          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16655,11 +16655,11 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
+          <t>Compañía de Inversiones Mobiliarias Limitada</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>820</v>
+        <v>850</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16668,12 +16668,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -19088,7 +19088,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -19116,12 +19116,12 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
@@ -19136,7 +19136,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -19164,12 +19164,12 @@
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
@@ -22991,7 +22991,7 @@
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>Codelco División Andina</t>
+          <t>Mantos Copper S.A</t>
         </is>
       </c>
       <c r="F472" t="n">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -2756,7 +2756,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Los Portones de San Luis</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,16 +5138,16 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1200</v>
+        <v>17890</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5156,12 +5156,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,16 +5186,16 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>9200</v>
+        <v>1200</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,16 +5234,16 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>9200</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Los Portones de San Luis</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,16 +5282,16 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Inmobiliaria PY S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>17890</v>
+        <v>0</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5300,12 +5300,12 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,11 +6919,11 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SOCIEDAD DISEPLA LTDA.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>800</v>
+        <v>986</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6967,11 +6967,11 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>SOCIEDAD DISEPLA LTDA.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>986</v>
+        <v>800</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10615,7 +10615,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F214" t="n">
@@ -10628,12 +10628,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10663,7 +10663,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F215" t="n">
@@ -10676,12 +10676,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10711,11 +10711,11 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10759,11 +10759,11 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10772,12 +10772,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
+          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11239,11 +11239,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Plasticos Montesa Ltda.</t>
+          <t>Anglo American Sur S.A.</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>1196</v>
+        <v>2000</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11252,12 +11252,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
+          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,11 +11287,11 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Anglo American Sur S.A.</t>
+          <t>Plasticos Montesa Ltda.</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>2000</v>
+        <v>1196</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11300,12 +11300,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -12664,7 +12664,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Terminal de Buses E.T.P.Local Colina S.A. (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12674,16 +12674,16 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Empresa de Tranporte de Pasajeros Local Colina S.A</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F257" t="n">
-        <v>40</v>
+        <v>1750</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -12692,12 +12692,12 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -12712,7 +12712,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Terminal de Buses E.T.P.Local Colina S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12722,16 +12722,16 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Empresa de Tranporte de Pasajeros Local Colina S.A</t>
         </is>
       </c>
       <c r="F258" t="n">
-        <v>1750</v>
+        <v>40</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -12740,12 +12740,12 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -13480,7 +13480,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -13490,16 +13490,16 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F274" t="n">
-        <v>80</v>
+        <v>1700</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
@@ -13508,12 +13508,12 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
@@ -13528,7 +13528,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -13538,16 +13538,16 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F275" t="n">
-        <v>1700</v>
+        <v>80</v>
       </c>
       <c r="G275" t="inlineStr">
         <is>
@@ -13556,12 +13556,12 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
@@ -16640,7 +16640,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
+          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16655,11 +16655,11 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
+          <t>Compañía de Inversiones Mobiliarias Limitada</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>820</v>
+        <v>850</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16668,12 +16668,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -16688,7 +16688,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
+          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16703,11 +16703,11 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Compañía de Inversiones Mobiliarias Limitada</t>
+          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>850</v>
+        <v>820</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16716,12 +16716,12 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -19136,7 +19136,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -19164,12 +19164,12 @@
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
@@ -19184,7 +19184,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -19212,12 +19212,12 @@
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Los Portones de San Luis</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,16 +5138,16 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Inmobiliaria PY S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>17890</v>
+        <v>1200</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5156,12 +5156,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,16 +5186,16 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1200</v>
+        <v>9200</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,16 +5234,16 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>9200</v>
+        <v>0</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Los Portones de San Luis</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,16 +5282,16 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>0</v>
+        <v>17890</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5300,12 +5300,12 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,11 +6919,11 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>SOCIEDAD DISEPLA LTDA.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>986</v>
+        <v>800</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6967,11 +6967,11 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SOCIEDAD DISEPLA LTDA.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>800</v>
+        <v>986</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10615,7 +10615,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F214" t="n">
@@ -10628,12 +10628,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10663,7 +10663,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F215" t="n">
@@ -10676,12 +10676,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10711,11 +10711,11 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10759,11 +10759,11 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10772,12 +10772,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
+          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11239,11 +11239,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Anglo American Sur S.A.</t>
+          <t>Plasticos Montesa Ltda.</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>2000</v>
+        <v>1196</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11252,12 +11252,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
+          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,11 +11287,11 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Plasticos Montesa Ltda.</t>
+          <t>Anglo American Sur S.A.</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>1196</v>
+        <v>2000</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11300,12 +11300,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -12664,7 +12664,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Terminal de Buses E.T.P.Local Colina S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12674,16 +12674,16 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Empresa de Tranporte de Pasajeros Local Colina S.A</t>
         </is>
       </c>
       <c r="F257" t="n">
-        <v>1750</v>
+        <v>40</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -12692,12 +12692,12 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -12712,7 +12712,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Terminal de Buses E.T.P.Local Colina S.A. (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12722,16 +12722,16 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Empresa de Tranporte de Pasajeros Local Colina S.A</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F258" t="n">
-        <v>40</v>
+        <v>1750</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -12740,12 +12740,12 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3222250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -13480,7 +13480,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -13490,16 +13490,16 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F274" t="n">
-        <v>1700</v>
+        <v>80</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
@@ -13508,12 +13508,12 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
@@ -13528,7 +13528,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -13538,16 +13538,16 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F275" t="n">
-        <v>80</v>
+        <v>1700</v>
       </c>
       <c r="G275" t="inlineStr">
         <is>
@@ -13556,12 +13556,12 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
@@ -16640,7 +16640,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
+          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16655,11 +16655,11 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Compañía de Inversiones Mobiliarias Limitada</t>
+          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>850</v>
+        <v>820</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16668,12 +16668,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -16688,7 +16688,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
+          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16703,11 +16703,11 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
+          <t>Compañía de Inversiones Mobiliarias Limitada</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>820</v>
+        <v>850</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16716,12 +16716,12 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -19136,7 +19136,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -19164,12 +19164,12 @@
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
@@ -19184,7 +19184,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -19212,12 +19212,12 @@
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/11/2023</t>
+          <t>23/11/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Los Portones de San Luis</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,16 +5138,16 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1200</v>
+        <v>17890</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5156,12 +5156,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,16 +5186,16 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>9200</v>
+        <v>1200</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,16 +5234,16 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>9200</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Los Portones de San Luis</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,16 +5282,16 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Inmobiliaria PY S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>17890</v>
+        <v>0</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5300,12 +5300,12 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,11 +6919,11 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SOCIEDAD DISEPLA LTDA.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>800</v>
+        <v>986</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6967,11 +6967,11 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>SOCIEDAD DISEPLA LTDA.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>986</v>
+        <v>800</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Ampliación de Capacidad para Almacenamiento de Cal Viva</t>
+          <t>Planta de Tratamiento de Agua Potable Chamisero</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7735,11 +7735,11 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Calidra Chile Importaciones Minerales SpA</t>
+          <t>Aguas Manquehue S.A.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>120</v>
+        <v>4335</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6130704&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089108&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Agua Potable Chamisero</t>
+          <t>Ampliación de Capacidad para Almacenamiento de Cal Viva</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7783,11 +7783,11 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Aguas Manquehue S.A.</t>
+          <t>Calidra Chile Importaciones Minerales SpA</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>4335</v>
+        <v>120</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089108&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6130704&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10615,7 +10615,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F214" t="n">
@@ -10628,12 +10628,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10663,7 +10663,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F215" t="n">
@@ -10676,12 +10676,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10711,11 +10711,11 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10759,11 +10759,11 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10772,12 +10772,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
+          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11239,11 +11239,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Plasticos Montesa Ltda.</t>
+          <t>Anglo American Sur S.A.</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>1196</v>
+        <v>2000</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11252,12 +11252,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
+          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,11 +11287,11 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Anglo American Sur S.A.</t>
+          <t>Plasticos Montesa Ltda.</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>2000</v>
+        <v>1196</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11300,12 +11300,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -13480,7 +13480,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -13490,16 +13490,16 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F274" t="n">
-        <v>80</v>
+        <v>1700</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
@@ -13508,12 +13508,12 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
@@ -13528,7 +13528,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -13538,16 +13538,16 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F275" t="n">
-        <v>1700</v>
+        <v>80</v>
       </c>
       <c r="G275" t="inlineStr">
         <is>
@@ -13556,12 +13556,12 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
@@ -16640,7 +16640,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
+          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16655,11 +16655,11 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
+          <t>Compañía de Inversiones Mobiliarias Limitada</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>820</v>
+        <v>850</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16668,12 +16668,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -16688,7 +16688,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
+          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16703,11 +16703,11 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Compañía de Inversiones Mobiliarias Limitada</t>
+          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>850</v>
+        <v>820</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16716,12 +16716,12 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -19136,7 +19136,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -19164,12 +19164,12 @@
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
@@ -19184,7 +19184,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -19212,12 +19212,12 @@
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Los Portones de San Luis</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,16 +5138,16 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Inmobiliaria PY S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>17890</v>
+        <v>1200</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5156,12 +5156,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,16 +5186,16 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1200</v>
+        <v>9200</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,16 +5234,16 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>9200</v>
+        <v>0</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Los Portones de San Luis</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,16 +5282,16 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>0</v>
+        <v>17890</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5300,12 +5300,12 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,11 +6919,11 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>SOCIEDAD DISEPLA LTDA.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>986</v>
+        <v>800</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6967,11 +6967,11 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SOCIEDAD DISEPLA LTDA.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>800</v>
+        <v>986</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Agua Potable Chamisero</t>
+          <t>Ampliación de Capacidad para Almacenamiento de Cal Viva</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7735,11 +7735,11 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Aguas Manquehue S.A.</t>
+          <t>Calidra Chile Importaciones Minerales SpA</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>4335</v>
+        <v>120</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089108&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6130704&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Ampliación de Capacidad para Almacenamiento de Cal Viva</t>
+          <t>Planta de Tratamiento de Agua Potable Chamisero</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7783,11 +7783,11 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Calidra Chile Importaciones Minerales SpA</t>
+          <t>Aguas Manquehue S.A.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>120</v>
+        <v>4335</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6130704&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089108&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10615,7 +10615,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F214" t="n">
@@ -10628,12 +10628,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10663,7 +10663,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F215" t="n">
@@ -10676,12 +10676,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10711,11 +10711,11 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10759,11 +10759,11 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10772,12 +10772,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
+          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11239,11 +11239,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Anglo American Sur S.A.</t>
+          <t>Plasticos Montesa Ltda.</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>2000</v>
+        <v>1196</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11252,12 +11252,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
+          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,11 +11287,11 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Plasticos Montesa Ltda.</t>
+          <t>Anglo American Sur S.A.</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>1196</v>
+        <v>2000</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11300,12 +11300,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -13480,7 +13480,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -13490,16 +13490,16 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F274" t="n">
-        <v>1700</v>
+        <v>80</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
@@ -13508,12 +13508,12 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
@@ -13528,7 +13528,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -13538,16 +13538,16 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F275" t="n">
-        <v>80</v>
+        <v>1700</v>
       </c>
       <c r="G275" t="inlineStr">
         <is>
@@ -13556,12 +13556,12 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
@@ -16640,7 +16640,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
+          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16655,11 +16655,11 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Compañía de Inversiones Mobiliarias Limitada</t>
+          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>850</v>
+        <v>820</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16668,12 +16668,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -16688,7 +16688,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
+          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16703,11 +16703,11 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
+          <t>Compañía de Inversiones Mobiliarias Limitada</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>820</v>
+        <v>850</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16716,12 +16716,12 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -19136,7 +19136,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -19164,12 +19164,12 @@
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
@@ -19184,7 +19184,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -19212,12 +19212,12 @@
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Los Portones de San Luis</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,16 +5138,16 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1200</v>
+        <v>17890</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5156,12 +5156,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,16 +5186,16 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>9200</v>
+        <v>1200</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,16 +5234,16 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>9200</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Los Portones de San Luis</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,16 +5282,16 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Inmobiliaria PY S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>17890</v>
+        <v>0</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5300,12 +5300,12 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,11 +6919,11 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SOCIEDAD DISEPLA LTDA.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>800</v>
+        <v>986</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6967,11 +6967,11 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>SOCIEDAD DISEPLA LTDA.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>986</v>
+        <v>800</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Ampliación de Capacidad para Almacenamiento de Cal Viva</t>
+          <t>Planta de Tratamiento de Agua Potable Chamisero</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7735,11 +7735,11 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Calidra Chile Importaciones Minerales SpA</t>
+          <t>Aguas Manquehue S.A.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>120</v>
+        <v>4335</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6130704&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089108&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Agua Potable Chamisero</t>
+          <t>Ampliación de Capacidad para Almacenamiento de Cal Viva</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7783,11 +7783,11 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Aguas Manquehue S.A.</t>
+          <t>Calidra Chile Importaciones Minerales SpA</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>4335</v>
+        <v>120</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089108&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6130704&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10615,7 +10615,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F214" t="n">
@@ -10628,12 +10628,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10663,7 +10663,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F215" t="n">
@@ -10676,12 +10676,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10711,11 +10711,11 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10759,11 +10759,11 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10772,12 +10772,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
+          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11239,11 +11239,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Plasticos Montesa Ltda.</t>
+          <t>Anglo American Sur S.A.</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>1196</v>
+        <v>2000</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11252,12 +11252,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
+          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,11 +11287,11 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Anglo American Sur S.A.</t>
+          <t>Plasticos Montesa Ltda.</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>2000</v>
+        <v>1196</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11300,12 +11300,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -13480,7 +13480,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -13490,16 +13490,16 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F274" t="n">
-        <v>80</v>
+        <v>1700</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
@@ -13508,12 +13508,12 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
@@ -13528,7 +13528,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -13538,16 +13538,16 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F275" t="n">
-        <v>1700</v>
+        <v>80</v>
       </c>
       <c r="G275" t="inlineStr">
         <is>
@@ -13556,12 +13556,12 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
@@ -16640,7 +16640,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
+          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16655,11 +16655,11 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
+          <t>Compañía de Inversiones Mobiliarias Limitada</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>820</v>
+        <v>850</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16668,12 +16668,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -16688,7 +16688,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
+          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16703,11 +16703,11 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Compañía de Inversiones Mobiliarias Limitada</t>
+          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>850</v>
+        <v>820</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16716,12 +16716,12 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -19136,7 +19136,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -19164,12 +19164,12 @@
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
@@ -19184,7 +19184,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -19212,12 +19212,12 @@
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Los Portones de San Luis</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,16 +5186,16 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Inmobiliaria PY S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>17890</v>
+        <v>1200</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5204,12 +5204,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,16 +5234,16 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1200</v>
+        <v>9200</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,16 +5282,16 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>9200</v>
+        <v>0</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Los Portones de San Luis</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,16 +5330,16 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>17890</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5348,12 +5348,12 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6967,11 +6967,11 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>SOCIEDAD DISEPLA LTDA.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>986</v>
+        <v>800</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7015,11 +7015,11 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SOCIEDAD DISEPLA LTDA.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>800</v>
+        <v>986</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7028,12 +7028,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10663,7 +10663,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F215" t="n">
@@ -10676,12 +10676,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10711,7 +10711,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F216" t="n">
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10759,11 +10759,11 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10772,12 +10772,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10807,11 +10807,11 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10820,12 +10820,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
+          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,11 +11287,11 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Anglo American Sur S.A.</t>
+          <t>Plasticos Montesa Ltda.</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>2000</v>
+        <v>1196</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11300,12 +11300,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
+          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11335,11 +11335,11 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Plasticos Montesa Ltda.</t>
+          <t>Anglo American Sur S.A.</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>1196</v>
+        <v>2000</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11348,12 +11348,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -13528,7 +13528,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -13538,16 +13538,16 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F275" t="n">
-        <v>1700</v>
+        <v>80</v>
       </c>
       <c r="G275" t="inlineStr">
         <is>
@@ -13556,12 +13556,12 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
@@ -13576,7 +13576,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -13586,16 +13586,16 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F276" t="n">
-        <v>80</v>
+        <v>1700</v>
       </c>
       <c r="G276" t="inlineStr">
         <is>
@@ -13604,12 +13604,12 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
@@ -16688,7 +16688,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
+          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16703,11 +16703,11 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Compañía de Inversiones Mobiliarias Limitada</t>
+          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>850</v>
+        <v>820</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16716,12 +16716,12 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16736,7 +16736,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
+          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16751,11 +16751,11 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
+          <t>Compañía de Inversiones Mobiliarias Limitada</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>820</v>
+        <v>850</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16764,12 +16764,12 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -19184,7 +19184,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -19212,12 +19212,12 @@
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
@@ -19232,7 +19232,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -19260,12 +19260,12 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Los Portones de San Luis</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,16 +5186,16 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1200</v>
+        <v>17890</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5204,12 +5204,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,16 +5234,16 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>9200</v>
+        <v>1200</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,16 +5282,16 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>0</v>
+        <v>9200</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Los Portones de San Luis</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,16 +5330,16 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Inmobiliaria PY S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>17890</v>
+        <v>0</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5348,12 +5348,12 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6967,11 +6967,11 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SOCIEDAD DISEPLA LTDA.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>800</v>
+        <v>986</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7015,11 +7015,11 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>SOCIEDAD DISEPLA LTDA.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>986</v>
+        <v>800</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7028,12 +7028,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10663,7 +10663,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F215" t="n">
@@ -10676,12 +10676,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10711,7 +10711,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F216" t="n">
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10759,11 +10759,11 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10772,12 +10772,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10807,11 +10807,11 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10820,12 +10820,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
+          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,11 +11287,11 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Plasticos Montesa Ltda.</t>
+          <t>Anglo American Sur S.A.</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>1196</v>
+        <v>2000</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11300,12 +11300,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
+          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11335,11 +11335,11 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Anglo American Sur S.A.</t>
+          <t>Plasticos Montesa Ltda.</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>2000</v>
+        <v>1196</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11348,12 +11348,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -13528,7 +13528,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -13538,16 +13538,16 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F275" t="n">
-        <v>80</v>
+        <v>1700</v>
       </c>
       <c r="G275" t="inlineStr">
         <is>
@@ -13556,12 +13556,12 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
@@ -13576,7 +13576,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -13586,16 +13586,16 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F276" t="n">
-        <v>1700</v>
+        <v>80</v>
       </c>
       <c r="G276" t="inlineStr">
         <is>
@@ -13604,12 +13604,12 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
@@ -16688,7 +16688,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
+          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16703,11 +16703,11 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
+          <t>Compañía de Inversiones Mobiliarias Limitada</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>820</v>
+        <v>850</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16716,12 +16716,12 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16736,7 +16736,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
+          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16751,11 +16751,11 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Compañía de Inversiones Mobiliarias Limitada</t>
+          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>850</v>
+        <v>820</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16764,12 +16764,12 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -19184,7 +19184,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -19212,12 +19212,12 @@
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
@@ -19232,7 +19232,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -19260,12 +19260,12 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>19/12/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Los Portones de San Luis</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,16 +5234,16 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1200</v>
+        <v>17890</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5252,12 +5252,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,16 +5282,16 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>9200</v>
+        <v>1200</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,16 +5330,16 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>9200</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Los Portones de San Luis</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,16 +5378,16 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Inmobiliaria PY S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>17890</v>
+        <v>0</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5396,12 +5396,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7015,11 +7015,11 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SOCIEDAD DISEPLA LTDA.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>800</v>
+        <v>986</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7028,12 +7028,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7063,11 +7063,11 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>SOCIEDAD DISEPLA LTDA.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>986</v>
+        <v>800</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7076,12 +7076,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Ampliación de Capacidad para Almacenamiento de Cal Viva</t>
+          <t>Planta de Tratamiento de Agua Potable Chamisero</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7831,11 +7831,11 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Calidra Chile Importaciones Minerales SpA</t>
+          <t>Aguas Manquehue S.A.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>120</v>
+        <v>4335</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6130704&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089108&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Agua Potable Chamisero</t>
+          <t>Ampliación de Capacidad para Almacenamiento de Cal Viva</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7879,11 +7879,11 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Aguas Manquehue S.A.</t>
+          <t>Calidra Chile Importaciones Minerales SpA</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>4335</v>
+        <v>120</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089108&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6130704&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10711,7 +10711,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F216" t="n">
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10759,7 +10759,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F217" t="n">
@@ -10772,12 +10772,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10807,11 +10807,11 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10820,12 +10820,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10855,11 +10855,11 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10868,12 +10868,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
+          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11335,11 +11335,11 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Plasticos Montesa Ltda.</t>
+          <t>Anglo American Sur S.A.</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>1196</v>
+        <v>2000</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11348,12 +11348,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
+          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,11 +11383,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Anglo American Sur S.A.</t>
+          <t>Plasticos Montesa Ltda.</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>2000</v>
+        <v>1196</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11396,12 +11396,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -13576,7 +13576,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -13586,16 +13586,16 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F276" t="n">
-        <v>80</v>
+        <v>1700</v>
       </c>
       <c r="G276" t="inlineStr">
         <is>
@@ -13604,12 +13604,12 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
@@ -13624,7 +13624,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -13634,16 +13634,16 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F277" t="n">
-        <v>1700</v>
+        <v>80</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
@@ -13652,12 +13652,12 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
@@ -16736,7 +16736,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
+          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16751,11 +16751,11 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
+          <t>Compañía de Inversiones Mobiliarias Limitada</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>820</v>
+        <v>850</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16764,12 +16764,12 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -16784,7 +16784,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
+          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16799,11 +16799,11 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Compañía de Inversiones Mobiliarias Limitada</t>
+          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>850</v>
+        <v>820</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16812,12 +16812,12 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -19232,7 +19232,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -19260,12 +19260,12 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
@@ -19280,7 +19280,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -19308,12 +19308,12 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
@@ -22880,7 +22880,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas. Condominio las Brisas de Chicureo</t>
+          <t>Instalación Planta de Tratamiento de Aguas Servidas</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -22899,7 +22899,7 @@
         </is>
       </c>
       <c r="F470" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G470" t="inlineStr">
         <is>
@@ -22913,7 +22913,7 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=112&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2578&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
@@ -22928,7 +22928,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Instalación Planta de Tratamiento de Aguas Servidas</t>
+          <t>Planta de Tratamiento de Aguas Servidas. Condominio las Brisas de Chicureo</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -22947,7 +22947,7 @@
         </is>
       </c>
       <c r="F471" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G471" t="inlineStr">
         <is>
@@ -22961,7 +22961,7 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2578&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=112&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Los Portones de San Luis</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,16 +5234,16 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Inmobiliaria PY S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>17890</v>
+        <v>1200</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5252,12 +5252,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,16 +5282,16 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1200</v>
+        <v>9200</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>"Ampliación planta de tratamiento de aguas servidas, sector Santa Elena, comuna de Colina, Empresa Sanitaria Aguas de Colina S.A."</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,16 +5330,16 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios Aguas de Colina S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>9200</v>
+        <v>0</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Los Portones de San Luis</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,16 +5378,16 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Inmobiliaria PY S.A.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>17890</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5396,12 +5396,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128975984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7015,11 +7015,11 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>SOCIEDAD DISEPLA LTDA.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>986</v>
+        <v>800</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7028,12 +7028,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Fabrica de Espuma de Poliuretano Sociedad Disepla Ltda.</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7063,11 +7063,11 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SOCIEDAD DISEPLA LTDA.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>800</v>
+        <v>986</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7076,12 +7076,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6252563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Agua Potable Chamisero</t>
+          <t>Ampliación de Capacidad para Almacenamiento de Cal Viva</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7831,11 +7831,11 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Aguas Manquehue S.A.</t>
+          <t>Calidra Chile Importaciones Minerales SpA</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>4335</v>
+        <v>120</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089108&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6130704&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Ampliación de Capacidad para Almacenamiento de Cal Viva</t>
+          <t>Planta de Tratamiento de Agua Potable Chamisero</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7879,11 +7879,11 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Calidra Chile Importaciones Minerales SpA</t>
+          <t>Aguas Manquehue S.A.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>120</v>
+        <v>4335</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6130704&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6089108&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10711,7 +10711,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F216" t="n">
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10759,7 +10759,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F217" t="n">
@@ -10772,12 +10772,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10807,11 +10807,11 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10820,12 +10820,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10855,11 +10855,11 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10868,12 +10868,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
+          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11335,11 +11335,11 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Anglo American Sur S.A.</t>
+          <t>Plasticos Montesa Ltda.</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>2000</v>
+        <v>1196</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11348,12 +11348,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Ampliación Fábrica de Plásticos Montesa Ltda (e-seia)</t>
+          <t>Modificación Línea Eléctrica Polpaico-Confluencia, Sector El Manzano (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,11 +11383,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Plasticos Montesa Ltda.</t>
+          <t>Anglo American Sur S.A.</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>1196</v>
+        <v>2000</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11396,12 +11396,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3985133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -13576,7 +13576,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -13586,16 +13586,16 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F276" t="n">
-        <v>1700</v>
+        <v>80</v>
       </c>
       <c r="G276" t="inlineStr">
         <is>
@@ -13604,12 +13604,12 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
@@ -13624,7 +13624,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificación Proyecto Plantas de Producción de Materiales para el Acceso Nororiente a Santiago (e-seia)</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -13634,16 +13634,16 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F277" t="n">
-        <v>80</v>
+        <v>1700</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
@@ -13652,12 +13652,12 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3012743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
@@ -16736,7 +16736,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
+          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16751,11 +16751,11 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Compañía de Inversiones Mobiliarias Limitada</t>
+          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>850</v>
+        <v>820</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16764,12 +16764,12 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -16784,7 +16784,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMÉSTICAS, COMUNIDAD LOTEO LOS LIBERTADORES Exp. Nº (e-seia)</t>
+          <t>Planta de Envasado de Diluyentes y Acido Muriático (e-seia)</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16799,11 +16799,11 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>COMUNIDAD LOTEO LOS LIBERTADORES</t>
+          <t>Compañía de Inversiones Mobiliarias Limitada</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>820</v>
+        <v>850</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16812,12 +16812,12 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -19232,7 +19232,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -19260,12 +19260,12 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
@@ -19280,7 +19280,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -19308,12 +19308,12 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
@@ -22880,7 +22880,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Instalación Planta de Tratamiento de Aguas Servidas</t>
+          <t>Planta de Tratamiento de Aguas Servidas. Condominio las Brisas de Chicureo</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -22899,7 +22899,7 @@
         </is>
       </c>
       <c r="F470" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G470" t="inlineStr">
         <is>
@@ -22913,7 +22913,7 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2578&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=112&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
@@ -22928,7 +22928,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas. Condominio las Brisas de Chicureo</t>
+          <t>Instalación Planta de Tratamiento de Aguas Servidas</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -22947,7 +22947,7 @@
         </is>
       </c>
       <c r="F471" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G471" t="inlineStr">
         <is>
@@ -22961,7 +22961,7 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=112&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2578&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">

--- a/data/Colina.xlsx
+++ b/data/Colina.xlsx
@@ -1172,7 +1172,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
